--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>bat</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>min_win_sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lots of rapid time dynamics </t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,6 +436,9 @@
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
@@ -456,6 +462,9 @@
       <c r="F3">
         <v>0.8</v>
       </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
@@ -479,6 +488,9 @@
       <c r="F4">
         <v>0.8</v>
       </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
@@ -502,6 +514,9 @@
       <c r="F5">
         <v>0.8</v>
       </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -521,6 +536,219 @@
       </c>
       <c r="F6">
         <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43172</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43172</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43172</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43173</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43173</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43173</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43174</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.8</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43174</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43174</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>bat</t>
   </si>
@@ -63,6 +63,27 @@
   </si>
   <si>
     <t xml:space="preserve">lots of rapid time dynamics </t>
+  </si>
+  <si>
+    <t>CD_thr</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>bandpass</t>
+  </si>
+  <si>
+    <t>highpass</t>
+  </si>
+  <si>
+    <t>amazing interneurons which I added to the library</t>
+  </si>
+  <si>
+    <t>many weird spikes shapes!!! I did only very rough sorting because it is in the cortex…. (no time to sort!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only one interneuron not stable </t>
   </si>
 </sst>
 </file>
@@ -382,22 +403,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="6" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="48.375" customWidth="1"/>
-    <col min="9" max="9" width="57.75" customWidth="1"/>
+    <col min="6" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="48.375" customWidth="1"/>
+    <col min="11" max="11" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,35 +441,53 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>34</v>
       </c>
       <c r="B2" s="1">
-        <v>43170</v>
+        <v>43167</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8</v>
       </c>
       <c r="G2">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>34</v>
       </c>
       <c r="B3" s="1">
-        <v>43170</v>
+        <v>43167</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -465,16 +504,19 @@
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>34</v>
       </c>
       <c r="B4" s="1">
-        <v>43171</v>
+        <v>43169</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -491,16 +533,19 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>34</v>
       </c>
       <c r="B5" s="1">
-        <v>43171</v>
+        <v>43169</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -517,13 +562,19 @@
       <c r="G5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>34</v>
       </c>
       <c r="B6" s="1">
-        <v>43171</v>
+        <v>43169</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -532,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0.8</v>
@@ -540,215 +591,542 @@
       <c r="G6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>34</v>
       </c>
       <c r="B7" s="1">
+        <v>43170</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43170</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43171</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43171</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43171</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1">
         <v>43172</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8</v>
-      </c>
-      <c r="G7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+      <c r="G12">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1">
         <v>43172</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8</v>
-      </c>
-      <c r="G8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.8</v>
+      </c>
+      <c r="G13">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
         <v>43172</v>
       </c>
-      <c r="C9">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8</v>
-      </c>
-      <c r="G9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
         <v>43173</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8</v>
-      </c>
-      <c r="G10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1">
         <v>43173</v>
       </c>
-      <c r="C11">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8</v>
-      </c>
-      <c r="G11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.8</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
         <v>43173</v>
       </c>
-      <c r="C12">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.8</v>
-      </c>
-      <c r="G12">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.8</v>
+      </c>
+      <c r="G17">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
         <v>43174</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.8</v>
-      </c>
-      <c r="G13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.8</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
         <v>43174</v>
       </c>
-      <c r="C14">
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.8</v>
-      </c>
-      <c r="G14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.8</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
         <v>43174</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.8</v>
-      </c>
-      <c r="G15">
-        <v>25</v>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.8</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9861</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43239</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.8</v>
+      </c>
+      <c r="G21">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9861</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43239</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.8</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9861</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43239</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.8</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9861</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43239</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.8</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>bat</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">only one interneuron not stable </t>
+  </si>
+  <si>
+    <t>I did only very rough sorting because it is in the cortex…. (no time to sort!)</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1129,6 +1132,183 @@
         <v>4</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9861</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43241</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.8</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9861</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43241</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.8</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9861</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43241</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.8</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9861</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43241</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.8</v>
+      </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9861</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43242</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.8</v>
+      </c>
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9861</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43242</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.8</v>
+      </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>bat</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>I did only very rough sorting because it is in the cortex…. (no time to sort!)</t>
+  </si>
+  <si>
+    <t>lots of units, some burst may split units to 2!</t>
+  </si>
+  <si>
+    <t>no isolated cells</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1309,6 +1315,276 @@
         <v>16</v>
       </c>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9861</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43243</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.8</v>
+      </c>
+      <c r="G31">
+        <v>24</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>9861</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43243</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.8</v>
+      </c>
+      <c r="G32">
+        <v>24</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9861</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43243</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0.8</v>
+      </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9861</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43243</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0.8</v>
+      </c>
+      <c r="G34">
+        <v>24</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>9861</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.8</v>
+      </c>
+      <c r="G35">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>9861</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.8</v>
+      </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9861</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0.8</v>
+      </c>
+      <c r="G37">
+        <v>24</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9861</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0.8</v>
+      </c>
+      <c r="G38">
+        <v>24</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9861</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0.8</v>
+      </c>
+      <c r="G39">
+        <v>24</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
   <si>
     <t>bat</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>no isolated cells</t>
+  </si>
+  <si>
+    <t>there were jumps when changing sessions</t>
+  </si>
+  <si>
+    <t>lots of cells with lots of time dynamics, VERY hard to sort!</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1474,7 +1480,7 @@
         <v>43244</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -1503,7 +1509,7 @@
         <v>43244</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -1532,7 +1538,7 @@
         <v>43244</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -1551,6 +1557,9 @@
       </c>
       <c r="I38" t="s">
         <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1558,31 +1567,507 @@
         <v>9861</v>
       </c>
       <c r="B39" s="1">
-        <v>43244</v>
+        <v>43245</v>
       </c>
       <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0.8</v>
+      </c>
+      <c r="G39">
+        <v>24</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9861</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43245</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0.8</v>
+      </c>
+      <c r="G40">
+        <v>24</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
         <v>4</v>
       </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0.8</v>
-      </c>
-      <c r="G39">
-        <v>24</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
-      </c>
-      <c r="I39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>9861</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43245</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0.8</v>
+      </c>
+      <c r="G41">
+        <v>24</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9861</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43245</v>
+      </c>
+      <c r="C42">
         <v>4</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.8</v>
+      </c>
+      <c r="G42">
+        <v>24</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9861</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43246</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.8</v>
+      </c>
+      <c r="G43">
+        <v>24</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9861</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43246</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.8</v>
+      </c>
+      <c r="G44">
+        <v>24</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9861</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43246</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.8</v>
+      </c>
+      <c r="G45">
+        <v>24</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9861</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43246</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.8</v>
+      </c>
+      <c r="G46">
+        <v>24</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9861</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43247</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.8</v>
+      </c>
+      <c r="G47">
+        <v>24</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9861</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43247</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0.8</v>
+      </c>
+      <c r="G48">
+        <v>24</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>9861</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43247</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.8</v>
+      </c>
+      <c r="G49">
+        <v>24</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9861</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43247</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0.8</v>
+      </c>
+      <c r="G50">
+        <v>24</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9861</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0.8</v>
+      </c>
+      <c r="G51">
+        <v>24</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9861</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0.8</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>9861</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.8</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9861</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.8</v>
+      </c>
+      <c r="G54">
+        <v>24</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>9861</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43250</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.8</v>
+      </c>
+      <c r="G55">
+        <v>24</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
   <si>
     <t>bat</t>
   </si>
@@ -68,9 +68,6 @@
     <t>CD_thr</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
     <t>bandpass</t>
   </si>
   <si>
@@ -100,12 +97,41 @@
   <si>
     <t>lots of cells with lots of time dynamics, VERY hard to sort!</t>
   </si>
+  <si>
+    <t>lots of flight artifacts</t>
+  </si>
+  <si>
+    <t>no cells; lots of SD write artifacts</t>
+  </si>
+  <si>
+    <t>couldn't well-isolate the clusters</t>
+  </si>
+  <si>
+    <t>CD_nTT_thr</t>
+  </si>
+  <si>
+    <t>filter_type</t>
+  </si>
+  <si>
+    <t>no isolated cells (only MUA); lots of SD write artifacts</t>
+  </si>
+  <si>
+    <t>no isolated cells (only MUA)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,15 +141,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,16 +162,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,57 +467,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="6" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="48.375" customWidth="1"/>
-    <col min="11" max="11" width="57.75" customWidth="1"/>
+    <col min="6" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="48.375" customWidth="1"/>
+    <col min="12" max="12" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>34</v>
       </c>
@@ -493,11 +546,11 @@
       <c r="H2">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>34</v>
       </c>
@@ -522,11 +575,11 @@
       <c r="H3">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>34</v>
       </c>
@@ -551,11 +604,11 @@
       <c r="H4">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>34</v>
       </c>
@@ -580,11 +633,11 @@
       <c r="H5">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>34</v>
       </c>
@@ -609,11 +662,11 @@
       <c r="H6">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>34</v>
       </c>
@@ -623,14 +676,14 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>34</v>
       </c>
@@ -655,14 +708,14 @@
       <c r="H8">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>34</v>
       </c>
@@ -687,14 +740,14 @@
       <c r="H9">
         <v>7</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
       <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34</v>
       </c>
@@ -719,11 +772,11 @@
       <c r="H10">
         <v>7</v>
       </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>34</v>
       </c>
@@ -748,11 +801,11 @@
       <c r="H11">
         <v>7</v>
       </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>34</v>
       </c>
@@ -777,11 +830,11 @@
       <c r="H12">
         <v>7</v>
       </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>34</v>
       </c>
@@ -806,11 +859,11 @@
       <c r="H13">
         <v>7</v>
       </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>34</v>
       </c>
@@ -835,11 +888,11 @@
       <c r="H14">
         <v>7</v>
       </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>34</v>
       </c>
@@ -864,11 +917,11 @@
       <c r="H15">
         <v>7</v>
       </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>34</v>
       </c>
@@ -893,11 +946,11 @@
       <c r="H16">
         <v>7</v>
       </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>34</v>
       </c>
@@ -922,14 +975,14 @@
       <c r="H17">
         <v>7</v>
       </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
       <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>34</v>
       </c>
@@ -954,11 +1007,11 @@
       <c r="H18">
         <v>7</v>
       </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>34</v>
       </c>
@@ -983,11 +1036,11 @@
       <c r="H19">
         <v>7</v>
       </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>34</v>
       </c>
@@ -1012,11 +1065,11 @@
       <c r="H20">
         <v>6</v>
       </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9861</v>
       </c>
@@ -1041,14 +1094,17 @@
       <c r="H21">
         <v>6</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9861</v>
       </c>
@@ -1073,14 +1129,17 @@
       <c r="H22">
         <v>6</v>
       </c>
-      <c r="I22" t="s">
-        <v>16</v>
+      <c r="I22">
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9861</v>
       </c>
@@ -1105,14 +1164,17 @@
       <c r="H23">
         <v>6</v>
       </c>
-      <c r="I23" t="s">
-        <v>16</v>
+      <c r="I23">
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9861</v>
       </c>
@@ -1137,14 +1199,17 @@
       <c r="H24">
         <v>6</v>
       </c>
-      <c r="I24" t="s">
-        <v>16</v>
+      <c r="I24">
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9861</v>
       </c>
@@ -1169,11 +1234,14 @@
       <c r="H25">
         <v>6</v>
       </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9861</v>
       </c>
@@ -1198,14 +1266,17 @@
       <c r="H26">
         <v>6</v>
       </c>
-      <c r="I26" t="s">
-        <v>16</v>
+      <c r="I26">
+        <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9861</v>
       </c>
@@ -1230,11 +1301,14 @@
       <c r="H27">
         <v>6</v>
       </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9861</v>
       </c>
@@ -1259,11 +1333,14 @@
       <c r="H28">
         <v>6</v>
       </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9861</v>
       </c>
@@ -1288,11 +1365,14 @@
       <c r="H29">
         <v>6</v>
       </c>
-      <c r="I29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9861</v>
       </c>
@@ -1317,11 +1397,14 @@
       <c r="H30">
         <v>6</v>
       </c>
-      <c r="I30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>9861</v>
       </c>
@@ -1346,14 +1429,17 @@
       <c r="H31">
         <v>6</v>
       </c>
-      <c r="I31" t="s">
-        <v>16</v>
+      <c r="I31">
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9861</v>
       </c>
@@ -1378,14 +1464,17 @@
       <c r="H32">
         <v>6</v>
       </c>
-      <c r="I32" t="s">
-        <v>16</v>
+      <c r="I32">
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>9861</v>
       </c>
@@ -1410,11 +1499,14 @@
       <c r="H33">
         <v>6</v>
       </c>
-      <c r="I33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9861</v>
       </c>
@@ -1439,11 +1531,14 @@
       <c r="H34">
         <v>6</v>
       </c>
-      <c r="I34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9861</v>
       </c>
@@ -1468,11 +1563,14 @@
       <c r="H35">
         <v>6</v>
       </c>
-      <c r="I35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9861</v>
       </c>
@@ -1497,11 +1595,14 @@
       <c r="H36">
         <v>6</v>
       </c>
-      <c r="I36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9861</v>
       </c>
@@ -1526,11 +1627,14 @@
       <c r="H37">
         <v>6</v>
       </c>
-      <c r="I37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9861</v>
       </c>
@@ -1555,14 +1659,17 @@
       <c r="H38">
         <v>6</v>
       </c>
-      <c r="I38" t="s">
-        <v>16</v>
+      <c r="I38">
+        <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9861</v>
       </c>
@@ -1587,11 +1694,14 @@
       <c r="H39">
         <v>6</v>
       </c>
-      <c r="I39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9861</v>
       </c>
@@ -1616,14 +1726,17 @@
       <c r="H40">
         <v>6</v>
       </c>
-      <c r="I40" t="s">
-        <v>16</v>
+      <c r="I40">
+        <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9861</v>
       </c>
@@ -1648,11 +1761,14 @@
       <c r="H41">
         <v>6</v>
       </c>
-      <c r="I41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9861</v>
       </c>
@@ -1677,11 +1793,14 @@
       <c r="H42">
         <v>6</v>
       </c>
-      <c r="I42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9861</v>
       </c>
@@ -1706,11 +1825,14 @@
       <c r="H43">
         <v>6</v>
       </c>
-      <c r="I43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9861</v>
       </c>
@@ -1735,14 +1857,17 @@
       <c r="H44">
         <v>6</v>
       </c>
-      <c r="I44" t="s">
-        <v>16</v>
+      <c r="I44">
+        <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9861</v>
       </c>
@@ -1767,14 +1892,17 @@
       <c r="H45">
         <v>6</v>
       </c>
-      <c r="I45" t="s">
-        <v>16</v>
+      <c r="I45">
+        <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9861</v>
       </c>
@@ -1799,11 +1927,14 @@
       <c r="H46">
         <v>6</v>
       </c>
-      <c r="I46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9861</v>
       </c>
@@ -1828,11 +1959,14 @@
       <c r="H47">
         <v>6</v>
       </c>
-      <c r="I47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9861</v>
       </c>
@@ -1857,11 +1991,14 @@
       <c r="H48">
         <v>6</v>
       </c>
-      <c r="I48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>9861</v>
       </c>
@@ -1886,11 +2023,14 @@
       <c r="H49">
         <v>6</v>
       </c>
-      <c r="I49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9861</v>
       </c>
@@ -1915,14 +2055,17 @@
       <c r="H50">
         <v>6</v>
       </c>
-      <c r="I50" t="s">
-        <v>16</v>
+      <c r="I50">
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9861</v>
       </c>
@@ -1947,11 +2090,14 @@
       <c r="H51">
         <v>6</v>
       </c>
-      <c r="I51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9861</v>
       </c>
@@ -1976,11 +2122,14 @@
       <c r="H52">
         <v>6</v>
       </c>
-      <c r="I52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>9861</v>
       </c>
@@ -2005,11 +2154,14 @@
       <c r="H53">
         <v>6</v>
       </c>
-      <c r="I53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>9861</v>
       </c>
@@ -2034,14 +2186,17 @@
       <c r="H54">
         <v>6</v>
       </c>
-      <c r="I54" t="s">
-        <v>16</v>
+      <c r="I54">
+        <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>9861</v>
       </c>
@@ -2066,11 +2221,907 @@
       <c r="H55">
         <v>6</v>
       </c>
-      <c r="I55" t="s">
-        <v>16</v>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>9861</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43250</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0.8</v>
+      </c>
+      <c r="G56">
+        <v>24</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>9861</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43250</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.8</v>
+      </c>
+      <c r="G57">
+        <v>24</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9861</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43250</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.8</v>
+      </c>
+      <c r="G58">
+        <v>24</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9861</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.8</v>
+      </c>
+      <c r="G59">
+        <v>24</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>9861</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.8</v>
+      </c>
+      <c r="G60">
+        <v>24</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>9861</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.8</v>
+      </c>
+      <c r="G61">
+        <v>24</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9861</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0.8</v>
+      </c>
+      <c r="G62">
+        <v>24</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9861</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0.8</v>
+      </c>
+      <c r="G63">
+        <v>24</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>9861</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0.8</v>
+      </c>
+      <c r="G64">
+        <v>24</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>9861</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0.8</v>
+      </c>
+      <c r="G65">
+        <v>24</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>9861</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0.8</v>
+      </c>
+      <c r="G66">
+        <v>24</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>9861</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43254</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0.8</v>
+      </c>
+      <c r="G67">
+        <v>24</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>9861</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43254</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.8</v>
+      </c>
+      <c r="G68">
+        <v>24</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>9861</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43254</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0.8</v>
+      </c>
+      <c r="G69">
+        <v>24</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>9861</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43254</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0.8</v>
+      </c>
+      <c r="G70">
+        <v>24</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>9861</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43255</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0.8</v>
+      </c>
+      <c r="G71">
+        <v>24</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>9861</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43255</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0.8</v>
+      </c>
+      <c r="G72">
+        <v>24</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>9861</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43255</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0.8</v>
+      </c>
+      <c r="G73">
+        <v>24</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>9861</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43255</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.8</v>
+      </c>
+      <c r="G74">
+        <v>24</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>9861</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43256</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0.8</v>
+      </c>
+      <c r="G75">
+        <v>24</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9861</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43256</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0.8</v>
+      </c>
+      <c r="G76">
+        <v>24</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>9861</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43257</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0.8</v>
+      </c>
+      <c r="G77">
+        <v>24</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>9861</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43258</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0.8</v>
+      </c>
+      <c r="G78">
+        <v>24</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>9861</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43259</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0.8</v>
+      </c>
+      <c r="G79">
+        <v>24</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>9861</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43260</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0.8</v>
+      </c>
+      <c r="G80">
+        <v>24</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>9861</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43261</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0.8</v>
+      </c>
+      <c r="G81">
+        <v>24</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>bat</t>
   </si>
@@ -467,11 +467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3076,7 +3076,7 @@
         <v>5</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
         <v>15</v>
@@ -3111,13 +3111,249 @@
         <v>5</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
         <v>15</v>
       </c>
       <c r="K81" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>9861</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43262</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0.8</v>
+      </c>
+      <c r="G82">
+        <v>24</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>9861</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43263</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0.8</v>
+      </c>
+      <c r="G83">
+        <v>24</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>9861</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43264</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0.8</v>
+      </c>
+      <c r="G84">
+        <v>24</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>9861</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43265</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0.8</v>
+      </c>
+      <c r="G85">
+        <v>24</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>9861</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43266</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0.8</v>
+      </c>
+      <c r="G86">
+        <v>24</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>9861</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43267</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0.8</v>
+      </c>
+      <c r="G87">
+        <v>24</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>9861</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43268</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0.8</v>
+      </c>
+      <c r="G88">
+        <v>24</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="47">
   <si>
     <t>bat</t>
   </si>
@@ -117,6 +117,54 @@
   </si>
   <si>
     <t>no isolated cells (only MUA)</t>
+  </si>
+  <si>
+    <t>lots if firing! Thr by median is affected by the amount of spikes!</t>
+  </si>
+  <si>
+    <t>lots of activity; hard to isolate</t>
+  </si>
+  <si>
+    <t>lots of activity; several interneurons</t>
+  </si>
+  <si>
+    <t>activity correlated across channels hard to isolate</t>
+  </si>
+  <si>
+    <t>lots of activity but correlated across channels hard to isolate</t>
+  </si>
+  <si>
+    <t>lots of activity (probably interneurons)</t>
+  </si>
+  <si>
+    <t>lots of clusters, some not very easy to isolate</t>
+  </si>
+  <si>
+    <t>no clear clusters (some inverted spikes hard to isolate)</t>
+  </si>
+  <si>
+    <t>only multi-units</t>
+  </si>
+  <si>
+    <t>many clusters</t>
+  </si>
+  <si>
+    <t>bad logger (+no cells)</t>
+  </si>
+  <si>
+    <t>bad logger (+there are cells hard to cluster)</t>
+  </si>
+  <si>
+    <t>bad logger, but some MU can be sorted out</t>
+  </si>
+  <si>
+    <t>half of the recording with huge noise</t>
+  </si>
+  <si>
+    <t>half of the recording with huge noise (+no cells)</t>
+  </si>
+  <si>
+    <t>bad logger, some spikes but hard to isolate</t>
   </si>
 </sst>
 </file>
@@ -467,11 +515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3356,6 +3404,1826 @@
         <v>15</v>
       </c>
     </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2289</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43234</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0.8</v>
+      </c>
+      <c r="G89">
+        <v>24</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2289</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43234</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.8</v>
+      </c>
+      <c r="G90">
+        <v>24</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2289</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43234</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0.8</v>
+      </c>
+      <c r="G91">
+        <v>24</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2289</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43234</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0.8</v>
+      </c>
+      <c r="G92">
+        <v>24</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>4</v>
+      </c>
+      <c r="J92" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2289</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0.8</v>
+      </c>
+      <c r="G93">
+        <v>24</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>4</v>
+      </c>
+      <c r="J93" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2289</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0.8</v>
+      </c>
+      <c r="G94">
+        <v>24</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2289</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0.8</v>
+      </c>
+      <c r="G95">
+        <v>24</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2289</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0.8</v>
+      </c>
+      <c r="G96">
+        <v>24</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2289</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43238</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0.8</v>
+      </c>
+      <c r="G97">
+        <v>24</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>4</v>
+      </c>
+      <c r="J97" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2289</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43238</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0.8</v>
+      </c>
+      <c r="G98">
+        <v>24</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>4</v>
+      </c>
+      <c r="J98" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2289</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43238</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0.8</v>
+      </c>
+      <c r="G99">
+        <v>24</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
+        <v>4</v>
+      </c>
+      <c r="J99" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2289</v>
+      </c>
+      <c r="B100" s="1">
+        <v>43238</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0.8</v>
+      </c>
+      <c r="G100">
+        <v>24</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="J100" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2289</v>
+      </c>
+      <c r="B101" s="1">
+        <v>43240</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0.8</v>
+      </c>
+      <c r="G101">
+        <v>24</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2289</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43240</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0.8</v>
+      </c>
+      <c r="G102">
+        <v>24</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2289</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43240</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0.8</v>
+      </c>
+      <c r="G103">
+        <v>24</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>4</v>
+      </c>
+      <c r="J103" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2289</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43240</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0.8</v>
+      </c>
+      <c r="G104">
+        <v>24</v>
+      </c>
+      <c r="H104">
+        <v>5</v>
+      </c>
+      <c r="I104">
+        <v>4</v>
+      </c>
+      <c r="J104" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2289</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43243</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0.8</v>
+      </c>
+      <c r="G105">
+        <v>24</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105">
+        <v>4</v>
+      </c>
+      <c r="J105" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2289</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43243</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0.8</v>
+      </c>
+      <c r="G106">
+        <v>24</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
+        <v>4</v>
+      </c>
+      <c r="J106" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2289</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43243</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0.8</v>
+      </c>
+      <c r="G107">
+        <v>24</v>
+      </c>
+      <c r="H107">
+        <v>5</v>
+      </c>
+      <c r="I107">
+        <v>4</v>
+      </c>
+      <c r="J107" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2289</v>
+      </c>
+      <c r="B108" s="1">
+        <v>43243</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0.8</v>
+      </c>
+      <c r="G108">
+        <v>24</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="I108">
+        <v>4</v>
+      </c>
+      <c r="J108" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2289</v>
+      </c>
+      <c r="B109" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0.8</v>
+      </c>
+      <c r="G109">
+        <v>24</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <v>4</v>
+      </c>
+      <c r="J109" t="s">
+        <v>15</v>
+      </c>
+      <c r="K109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2289</v>
+      </c>
+      <c r="B110" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0.8</v>
+      </c>
+      <c r="G110">
+        <v>24</v>
+      </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
+      <c r="I110">
+        <v>4</v>
+      </c>
+      <c r="J110" t="s">
+        <v>15</v>
+      </c>
+      <c r="K110" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2289</v>
+      </c>
+      <c r="B111" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0.8</v>
+      </c>
+      <c r="G111">
+        <v>24</v>
+      </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
+      <c r="I111">
+        <v>4</v>
+      </c>
+      <c r="J111" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>2289</v>
+      </c>
+      <c r="B112" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0.8</v>
+      </c>
+      <c r="G112">
+        <v>24</v>
+      </c>
+      <c r="H112">
+        <v>5</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>2289</v>
+      </c>
+      <c r="B113" s="1">
+        <v>43245</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0.8</v>
+      </c>
+      <c r="G113">
+        <v>24</v>
+      </c>
+      <c r="H113">
+        <v>5</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+      <c r="J113" t="s">
+        <v>15</v>
+      </c>
+      <c r="K113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>2289</v>
+      </c>
+      <c r="B114" s="1">
+        <v>43245</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0.8</v>
+      </c>
+      <c r="G114">
+        <v>24</v>
+      </c>
+      <c r="H114">
+        <v>5</v>
+      </c>
+      <c r="I114">
+        <v>4</v>
+      </c>
+      <c r="J114" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>2289</v>
+      </c>
+      <c r="B115" s="1">
+        <v>43245</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0.8</v>
+      </c>
+      <c r="G115">
+        <v>24</v>
+      </c>
+      <c r="H115">
+        <v>5</v>
+      </c>
+      <c r="I115">
+        <v>4</v>
+      </c>
+      <c r="J115" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2289</v>
+      </c>
+      <c r="B116" s="1">
+        <v>43245</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0.8</v>
+      </c>
+      <c r="G116">
+        <v>24</v>
+      </c>
+      <c r="H116">
+        <v>5</v>
+      </c>
+      <c r="I116">
+        <v>4</v>
+      </c>
+      <c r="J116" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2289</v>
+      </c>
+      <c r="B117" s="1">
+        <v>43248</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0.8</v>
+      </c>
+      <c r="G117">
+        <v>24</v>
+      </c>
+      <c r="H117">
+        <v>5</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>2289</v>
+      </c>
+      <c r="B118" s="1">
+        <v>43248</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0.8</v>
+      </c>
+      <c r="G118">
+        <v>24</v>
+      </c>
+      <c r="H118">
+        <v>5</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2289</v>
+      </c>
+      <c r="B119" s="1">
+        <v>43248</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0.8</v>
+      </c>
+      <c r="G119">
+        <v>24</v>
+      </c>
+      <c r="H119">
+        <v>5</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+      <c r="J119" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2289</v>
+      </c>
+      <c r="B120" s="1">
+        <v>43248</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0.8</v>
+      </c>
+      <c r="G120">
+        <v>24</v>
+      </c>
+      <c r="H120">
+        <v>5</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+      <c r="J120" t="s">
+        <v>15</v>
+      </c>
+      <c r="K120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2289</v>
+      </c>
+      <c r="B121" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0.8</v>
+      </c>
+      <c r="G121">
+        <v>24</v>
+      </c>
+      <c r="H121">
+        <v>5</v>
+      </c>
+      <c r="I121">
+        <v>4</v>
+      </c>
+      <c r="J121" t="s">
+        <v>15</v>
+      </c>
+      <c r="K121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2289</v>
+      </c>
+      <c r="B122" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0.8</v>
+      </c>
+      <c r="G122">
+        <v>24</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+      <c r="I122">
+        <v>4</v>
+      </c>
+      <c r="J122" t="s">
+        <v>15</v>
+      </c>
+      <c r="K122" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2289</v>
+      </c>
+      <c r="B123" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0.8</v>
+      </c>
+      <c r="G123">
+        <v>24</v>
+      </c>
+      <c r="H123">
+        <v>5</v>
+      </c>
+      <c r="I123">
+        <v>4</v>
+      </c>
+      <c r="J123" t="s">
+        <v>15</v>
+      </c>
+      <c r="K123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2289</v>
+      </c>
+      <c r="B124" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0.8</v>
+      </c>
+      <c r="G124">
+        <v>24</v>
+      </c>
+      <c r="H124">
+        <v>5</v>
+      </c>
+      <c r="I124">
+        <v>4</v>
+      </c>
+      <c r="J124" t="s">
+        <v>15</v>
+      </c>
+      <c r="K124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2289</v>
+      </c>
+      <c r="B125" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0.8</v>
+      </c>
+      <c r="G125">
+        <v>24</v>
+      </c>
+      <c r="H125">
+        <v>5</v>
+      </c>
+      <c r="I125">
+        <v>4</v>
+      </c>
+      <c r="J125" t="s">
+        <v>15</v>
+      </c>
+      <c r="K125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2289</v>
+      </c>
+      <c r="B126" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0.8</v>
+      </c>
+      <c r="G126">
+        <v>24</v>
+      </c>
+      <c r="H126">
+        <v>5</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+      <c r="J126" t="s">
+        <v>15</v>
+      </c>
+      <c r="K126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2289</v>
+      </c>
+      <c r="B127" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0.8</v>
+      </c>
+      <c r="G127">
+        <v>24</v>
+      </c>
+      <c r="H127">
+        <v>5</v>
+      </c>
+      <c r="I127">
+        <v>4</v>
+      </c>
+      <c r="J127" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2289</v>
+      </c>
+      <c r="B128" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0.8</v>
+      </c>
+      <c r="G128">
+        <v>24</v>
+      </c>
+      <c r="H128">
+        <v>5</v>
+      </c>
+      <c r="I128">
+        <v>4</v>
+      </c>
+      <c r="J128" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2289</v>
+      </c>
+      <c r="B129" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0.8</v>
+      </c>
+      <c r="G129">
+        <v>24</v>
+      </c>
+      <c r="H129">
+        <v>5</v>
+      </c>
+      <c r="I129">
+        <v>4</v>
+      </c>
+      <c r="J129" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2289</v>
+      </c>
+      <c r="B130" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0.8</v>
+      </c>
+      <c r="G130">
+        <v>24</v>
+      </c>
+      <c r="H130">
+        <v>5</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130" t="s">
+        <v>15</v>
+      </c>
+      <c r="K130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2289</v>
+      </c>
+      <c r="B131" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0.8</v>
+      </c>
+      <c r="G131">
+        <v>24</v>
+      </c>
+      <c r="H131">
+        <v>5</v>
+      </c>
+      <c r="I131">
+        <v>4</v>
+      </c>
+      <c r="J131" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2289</v>
+      </c>
+      <c r="B132" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0.8</v>
+      </c>
+      <c r="G132">
+        <v>24</v>
+      </c>
+      <c r="H132">
+        <v>5</v>
+      </c>
+      <c r="I132">
+        <v>4</v>
+      </c>
+      <c r="J132" t="s">
+        <v>15</v>
+      </c>
+      <c r="K132" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2289</v>
+      </c>
+      <c r="B133" s="1">
+        <v>43254</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0.8</v>
+      </c>
+      <c r="G133">
+        <v>24</v>
+      </c>
+      <c r="H133">
+        <v>5</v>
+      </c>
+      <c r="I133">
+        <v>4</v>
+      </c>
+      <c r="J133" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2289</v>
+      </c>
+      <c r="B134" s="1">
+        <v>43254</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0.8</v>
+      </c>
+      <c r="G134">
+        <v>24</v>
+      </c>
+      <c r="H134">
+        <v>5</v>
+      </c>
+      <c r="I134">
+        <v>4</v>
+      </c>
+      <c r="J134" t="s">
+        <v>15</v>
+      </c>
+      <c r="K134" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2289</v>
+      </c>
+      <c r="B135" s="1">
+        <v>43254</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0.8</v>
+      </c>
+      <c r="G135">
+        <v>24</v>
+      </c>
+      <c r="H135">
+        <v>5</v>
+      </c>
+      <c r="I135">
+        <v>4</v>
+      </c>
+      <c r="J135" t="s">
+        <v>15</v>
+      </c>
+      <c r="K135" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2289</v>
+      </c>
+      <c r="B136" s="1">
+        <v>43254</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0.8</v>
+      </c>
+      <c r="G136">
+        <v>24</v>
+      </c>
+      <c r="H136">
+        <v>5</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+      <c r="J136" t="s">
+        <v>15</v>
+      </c>
+      <c r="K136" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2289</v>
+      </c>
+      <c r="B137" s="1">
+        <v>43259</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0.8</v>
+      </c>
+      <c r="G137">
+        <v>24</v>
+      </c>
+      <c r="H137">
+        <v>5</v>
+      </c>
+      <c r="I137">
+        <v>4</v>
+      </c>
+      <c r="J137" t="s">
+        <v>15</v>
+      </c>
+      <c r="K137" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2289</v>
+      </c>
+      <c r="B138" s="1">
+        <v>43259</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0.8</v>
+      </c>
+      <c r="G138">
+        <v>24</v>
+      </c>
+      <c r="H138">
+        <v>5</v>
+      </c>
+      <c r="I138">
+        <v>4</v>
+      </c>
+      <c r="J138" t="s">
+        <v>15</v>
+      </c>
+      <c r="K138" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2289</v>
+      </c>
+      <c r="B139" s="1">
+        <v>43259</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0.8</v>
+      </c>
+      <c r="G139">
+        <v>24</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+      <c r="I139">
+        <v>4</v>
+      </c>
+      <c r="J139" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2289</v>
+      </c>
+      <c r="B140" s="1">
+        <v>43259</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0.8</v>
+      </c>
+      <c r="G140">
+        <v>24</v>
+      </c>
+      <c r="H140">
+        <v>5</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="50">
   <si>
     <t>bat</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>bad logger, some spikes but hard to isolate</t>
+  </si>
+  <si>
+    <t>one isoalted cluster</t>
+  </si>
+  <si>
+    <t>some MU</t>
+  </si>
+  <si>
+    <t>many spikes but hard to isolate</t>
   </si>
 </sst>
 </file>
@@ -515,11 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I139" sqref="I139"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5224,6 +5233,426 @@
         <v>41</v>
       </c>
     </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2289</v>
+      </c>
+      <c r="B141" s="1">
+        <v>43266</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0.8</v>
+      </c>
+      <c r="G141">
+        <v>24</v>
+      </c>
+      <c r="H141">
+        <v>5</v>
+      </c>
+      <c r="I141">
+        <v>4</v>
+      </c>
+      <c r="J141" t="s">
+        <v>15</v>
+      </c>
+      <c r="K141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2289</v>
+      </c>
+      <c r="B142" s="1">
+        <v>43266</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0.8</v>
+      </c>
+      <c r="G142">
+        <v>24</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="I142">
+        <v>4</v>
+      </c>
+      <c r="J142" t="s">
+        <v>15</v>
+      </c>
+      <c r="K142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2289</v>
+      </c>
+      <c r="B143" s="1">
+        <v>43266</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0.8</v>
+      </c>
+      <c r="G143">
+        <v>24</v>
+      </c>
+      <c r="H143">
+        <v>5</v>
+      </c>
+      <c r="I143">
+        <v>4</v>
+      </c>
+      <c r="J143" t="s">
+        <v>15</v>
+      </c>
+      <c r="K143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2289</v>
+      </c>
+      <c r="B144" s="1">
+        <v>43266</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0.8</v>
+      </c>
+      <c r="G144">
+        <v>24</v>
+      </c>
+      <c r="H144">
+        <v>5</v>
+      </c>
+      <c r="I144">
+        <v>4</v>
+      </c>
+      <c r="J144" t="s">
+        <v>15</v>
+      </c>
+      <c r="K144" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2289</v>
+      </c>
+      <c r="B145" s="1">
+        <v>43270</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0.8</v>
+      </c>
+      <c r="G145">
+        <v>24</v>
+      </c>
+      <c r="H145">
+        <v>5</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="J145" t="s">
+        <v>15</v>
+      </c>
+      <c r="K145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2289</v>
+      </c>
+      <c r="B146" s="1">
+        <v>43270</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0.8</v>
+      </c>
+      <c r="G146">
+        <v>24</v>
+      </c>
+      <c r="H146">
+        <v>5</v>
+      </c>
+      <c r="I146">
+        <v>4</v>
+      </c>
+      <c r="J146" t="s">
+        <v>15</v>
+      </c>
+      <c r="K146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2289</v>
+      </c>
+      <c r="B147" s="1">
+        <v>43270</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0.8</v>
+      </c>
+      <c r="G147">
+        <v>24</v>
+      </c>
+      <c r="H147">
+        <v>5</v>
+      </c>
+      <c r="I147">
+        <v>4</v>
+      </c>
+      <c r="J147" t="s">
+        <v>15</v>
+      </c>
+      <c r="K147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2289</v>
+      </c>
+      <c r="B148" s="1">
+        <v>43270</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0.8</v>
+      </c>
+      <c r="G148">
+        <v>24</v>
+      </c>
+      <c r="H148">
+        <v>5</v>
+      </c>
+      <c r="I148">
+        <v>4</v>
+      </c>
+      <c r="J148" t="s">
+        <v>15</v>
+      </c>
+      <c r="K148" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2289</v>
+      </c>
+      <c r="B149" s="1">
+        <v>43271</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0.8</v>
+      </c>
+      <c r="G149">
+        <v>24</v>
+      </c>
+      <c r="H149">
+        <v>5</v>
+      </c>
+      <c r="I149">
+        <v>4</v>
+      </c>
+      <c r="J149" t="s">
+        <v>15</v>
+      </c>
+      <c r="K149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2289</v>
+      </c>
+      <c r="B150" s="1">
+        <v>43271</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0.8</v>
+      </c>
+      <c r="G150">
+        <v>24</v>
+      </c>
+      <c r="H150">
+        <v>5</v>
+      </c>
+      <c r="I150">
+        <v>4</v>
+      </c>
+      <c r="J150" t="s">
+        <v>15</v>
+      </c>
+      <c r="K150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2289</v>
+      </c>
+      <c r="B151" s="1">
+        <v>43271</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0.8</v>
+      </c>
+      <c r="G151">
+        <v>24</v>
+      </c>
+      <c r="H151">
+        <v>5</v>
+      </c>
+      <c r="I151">
+        <v>4</v>
+      </c>
+      <c r="J151" t="s">
+        <v>15</v>
+      </c>
+      <c r="K151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2289</v>
+      </c>
+      <c r="B152" s="1">
+        <v>43271</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0.8</v>
+      </c>
+      <c r="G152">
+        <v>24</v>
+      </c>
+      <c r="H152">
+        <v>5</v>
+      </c>
+      <c r="I152">
+        <v>4</v>
+      </c>
+      <c r="J152" t="s">
+        <v>15</v>
+      </c>
+      <c r="K152" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="68">
   <si>
     <t>bat</t>
   </si>
@@ -175,6 +175,60 @@
   <si>
     <t>many spikes but hard to isolate</t>
   </si>
+  <si>
+    <t>maybe SS01 and SS02 are the same unit?</t>
+  </si>
+  <si>
+    <t>maybe can be further isolated</t>
+  </si>
+  <si>
+    <t>a mess of clusters</t>
+  </si>
+  <si>
+    <t>multi-unit - unable t separate</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>not sure if to use the neg threshold - complicated sorting</t>
+  </si>
+  <si>
+    <t>few good clusters</t>
+  </si>
+  <si>
+    <t>only some MU</t>
+  </si>
+  <si>
+    <t>many good clusters</t>
+  </si>
+  <si>
+    <t>few units not well isolated</t>
+  </si>
+  <si>
+    <t>mostly MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">few good units </t>
+  </si>
+  <si>
+    <t>no clear clusters</t>
+  </si>
+  <si>
+    <t>lots of activity but hard to isolate</t>
+  </si>
+  <si>
+    <t>lots of activity but hard to isolate (I merged the clusters)</t>
+  </si>
+  <si>
+    <t>one small bad isolation cluster</t>
+  </si>
+  <si>
+    <t>few cells</t>
+  </si>
+  <si>
+    <t>several cells but hard to isolate</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,10 +299,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,11 +589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K197" sqref="K197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5653,6 +5718,2709 @@
         <v>49</v>
       </c>
     </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>79</v>
+      </c>
+      <c r="B153" s="1">
+        <v>42621</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0.8</v>
+      </c>
+      <c r="G153">
+        <v>24</v>
+      </c>
+      <c r="H153">
+        <v>7</v>
+      </c>
+      <c r="I153">
+        <v>4</v>
+      </c>
+      <c r="J153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>79</v>
+      </c>
+      <c r="B154" s="1">
+        <v>42622</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0.8</v>
+      </c>
+      <c r="G154">
+        <v>24</v>
+      </c>
+      <c r="H154">
+        <v>7</v>
+      </c>
+      <c r="I154">
+        <v>4</v>
+      </c>
+      <c r="J154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>79</v>
+      </c>
+      <c r="B155" s="1">
+        <v>42624</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0.8</v>
+      </c>
+      <c r="G155">
+        <v>24</v>
+      </c>
+      <c r="H155">
+        <v>7</v>
+      </c>
+      <c r="I155">
+        <v>4</v>
+      </c>
+      <c r="J155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>79</v>
+      </c>
+      <c r="B156" s="1">
+        <v>42625</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0.8</v>
+      </c>
+      <c r="G156">
+        <v>24</v>
+      </c>
+      <c r="H156">
+        <v>7</v>
+      </c>
+      <c r="I156">
+        <v>4</v>
+      </c>
+      <c r="J156" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>79</v>
+      </c>
+      <c r="B157" s="1">
+        <v>42626</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0.8</v>
+      </c>
+      <c r="G157">
+        <v>24</v>
+      </c>
+      <c r="H157">
+        <v>7</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+      <c r="J157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>79</v>
+      </c>
+      <c r="B158" s="1">
+        <v>42626</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0.8</v>
+      </c>
+      <c r="G158">
+        <v>24</v>
+      </c>
+      <c r="H158">
+        <v>7</v>
+      </c>
+      <c r="I158">
+        <v>4</v>
+      </c>
+      <c r="J158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>79</v>
+      </c>
+      <c r="B159" s="1">
+        <v>42627</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>7</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0.8</v>
+      </c>
+      <c r="G159">
+        <v>24</v>
+      </c>
+      <c r="H159">
+        <v>7</v>
+      </c>
+      <c r="I159">
+        <v>4</v>
+      </c>
+      <c r="J159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>79</v>
+      </c>
+      <c r="B160" s="1">
+        <v>42627</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0.8</v>
+      </c>
+      <c r="G160">
+        <v>24</v>
+      </c>
+      <c r="H160">
+        <v>7</v>
+      </c>
+      <c r="I160">
+        <v>4</v>
+      </c>
+      <c r="J160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>79</v>
+      </c>
+      <c r="B161" s="1">
+        <v>42628</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0.8</v>
+      </c>
+      <c r="G161">
+        <v>24</v>
+      </c>
+      <c r="H161">
+        <v>7</v>
+      </c>
+      <c r="I161">
+        <v>4</v>
+      </c>
+      <c r="J161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>79</v>
+      </c>
+      <c r="B162" s="1">
+        <v>42628</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0.8</v>
+      </c>
+      <c r="G162">
+        <v>24</v>
+      </c>
+      <c r="H162">
+        <v>7</v>
+      </c>
+      <c r="I162">
+        <v>4</v>
+      </c>
+      <c r="J162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>79</v>
+      </c>
+      <c r="B163" s="1">
+        <v>42629</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0.8</v>
+      </c>
+      <c r="G163">
+        <v>24</v>
+      </c>
+      <c r="H163">
+        <v>7</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>79</v>
+      </c>
+      <c r="B164" s="1">
+        <v>42629</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0.8</v>
+      </c>
+      <c r="G164">
+        <v>24</v>
+      </c>
+      <c r="H164">
+        <v>7</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+      <c r="J164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>79</v>
+      </c>
+      <c r="B165" s="1">
+        <v>42631</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0.8</v>
+      </c>
+      <c r="G165">
+        <v>24</v>
+      </c>
+      <c r="H165">
+        <v>7</v>
+      </c>
+      <c r="I165">
+        <v>4</v>
+      </c>
+      <c r="J165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>79</v>
+      </c>
+      <c r="B166" s="1">
+        <v>42631</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>7</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0.8</v>
+      </c>
+      <c r="G166">
+        <v>24</v>
+      </c>
+      <c r="H166">
+        <v>7</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+      <c r="J166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>79</v>
+      </c>
+      <c r="B167" s="1">
+        <v>42632</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>7</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0.8</v>
+      </c>
+      <c r="G167">
+        <v>24</v>
+      </c>
+      <c r="H167">
+        <v>6</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+      <c r="J167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>79</v>
+      </c>
+      <c r="B168" s="1">
+        <v>42632</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>7</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0.8</v>
+      </c>
+      <c r="G168">
+        <v>24</v>
+      </c>
+      <c r="H168">
+        <v>6</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>79</v>
+      </c>
+      <c r="B169" s="1">
+        <v>42633</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>7</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0.8</v>
+      </c>
+      <c r="G169">
+        <v>24</v>
+      </c>
+      <c r="H169">
+        <v>6</v>
+      </c>
+      <c r="I169">
+        <v>4</v>
+      </c>
+      <c r="J169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>79</v>
+      </c>
+      <c r="B170" s="1">
+        <v>42633</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>7</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0.8</v>
+      </c>
+      <c r="G170">
+        <v>24</v>
+      </c>
+      <c r="H170">
+        <v>6</v>
+      </c>
+      <c r="I170">
+        <v>4</v>
+      </c>
+      <c r="J170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>79</v>
+      </c>
+      <c r="B171" s="1">
+        <v>42634</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>7</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0.8</v>
+      </c>
+      <c r="G171">
+        <v>24</v>
+      </c>
+      <c r="H171">
+        <v>6</v>
+      </c>
+      <c r="I171">
+        <v>4</v>
+      </c>
+      <c r="J171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>79</v>
+      </c>
+      <c r="B172" s="1">
+        <v>42634</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>7</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0.8</v>
+      </c>
+      <c r="G172">
+        <v>24</v>
+      </c>
+      <c r="H172">
+        <v>6</v>
+      </c>
+      <c r="I172">
+        <v>4</v>
+      </c>
+      <c r="J172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>79</v>
+      </c>
+      <c r="B173" s="1">
+        <v>42636</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
+      </c>
+      <c r="F173">
+        <v>0.8</v>
+      </c>
+      <c r="G173">
+        <v>24</v>
+      </c>
+      <c r="H173">
+        <v>6</v>
+      </c>
+      <c r="I173">
+        <v>4</v>
+      </c>
+      <c r="J173" t="s">
+        <v>14</v>
+      </c>
+      <c r="K173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>79</v>
+      </c>
+      <c r="B174" s="1">
+        <v>42636</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>7</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0.8</v>
+      </c>
+      <c r="G174">
+        <v>24</v>
+      </c>
+      <c r="H174">
+        <v>6</v>
+      </c>
+      <c r="I174">
+        <v>4</v>
+      </c>
+      <c r="J174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>79</v>
+      </c>
+      <c r="B175" s="1">
+        <v>42637</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>7</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>0.8</v>
+      </c>
+      <c r="G175">
+        <v>24</v>
+      </c>
+      <c r="H175">
+        <v>6</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+      <c r="J175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>79</v>
+      </c>
+      <c r="B176" s="1">
+        <v>42637</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>7</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>0.8</v>
+      </c>
+      <c r="G176">
+        <v>24</v>
+      </c>
+      <c r="H176">
+        <v>6</v>
+      </c>
+      <c r="I176">
+        <v>4</v>
+      </c>
+      <c r="J176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>79</v>
+      </c>
+      <c r="B177" s="1">
+        <v>42638</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0.8</v>
+      </c>
+      <c r="G177">
+        <v>24</v>
+      </c>
+      <c r="H177">
+        <v>6</v>
+      </c>
+      <c r="I177">
+        <v>4</v>
+      </c>
+      <c r="J177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>79</v>
+      </c>
+      <c r="B178" s="1">
+        <v>42638</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0.8</v>
+      </c>
+      <c r="G178">
+        <v>24</v>
+      </c>
+      <c r="H178">
+        <v>6</v>
+      </c>
+      <c r="I178">
+        <v>4</v>
+      </c>
+      <c r="J178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>79</v>
+      </c>
+      <c r="B179" s="1">
+        <v>42639</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>7</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0.8</v>
+      </c>
+      <c r="G179">
+        <v>24</v>
+      </c>
+      <c r="H179">
+        <v>6</v>
+      </c>
+      <c r="I179">
+        <v>4</v>
+      </c>
+      <c r="J179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>79</v>
+      </c>
+      <c r="B180" s="1">
+        <v>42639</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>7</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0.8</v>
+      </c>
+      <c r="G180">
+        <v>24</v>
+      </c>
+      <c r="H180">
+        <v>6</v>
+      </c>
+      <c r="I180">
+        <v>4</v>
+      </c>
+      <c r="J180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>79</v>
+      </c>
+      <c r="B181" s="1">
+        <v>42639</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0.8</v>
+      </c>
+      <c r="G181">
+        <v>24</v>
+      </c>
+      <c r="H181">
+        <v>6</v>
+      </c>
+      <c r="I181">
+        <v>4</v>
+      </c>
+      <c r="J181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>79</v>
+      </c>
+      <c r="B182" s="1">
+        <v>42640</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>7</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0.8</v>
+      </c>
+      <c r="G182">
+        <v>24</v>
+      </c>
+      <c r="H182">
+        <v>6</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+      <c r="J182" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>79</v>
+      </c>
+      <c r="B183" s="1">
+        <v>42640</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>7</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0.8</v>
+      </c>
+      <c r="G183">
+        <v>24</v>
+      </c>
+      <c r="H183">
+        <v>6</v>
+      </c>
+      <c r="I183">
+        <v>4</v>
+      </c>
+      <c r="J183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>79</v>
+      </c>
+      <c r="B184" s="1">
+        <v>42640</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>7</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0.8</v>
+      </c>
+      <c r="G184">
+        <v>24</v>
+      </c>
+      <c r="H184">
+        <v>6</v>
+      </c>
+      <c r="I184">
+        <v>4</v>
+      </c>
+      <c r="J184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>79</v>
+      </c>
+      <c r="B185" s="1">
+        <v>42641</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>7</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0.8</v>
+      </c>
+      <c r="G185">
+        <v>24</v>
+      </c>
+      <c r="H185">
+        <v>6</v>
+      </c>
+      <c r="I185">
+        <v>4</v>
+      </c>
+      <c r="J185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>79</v>
+      </c>
+      <c r="B186" s="1">
+        <v>42641</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>7</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0.8</v>
+      </c>
+      <c r="G186">
+        <v>24</v>
+      </c>
+      <c r="H186">
+        <v>6</v>
+      </c>
+      <c r="I186">
+        <v>4</v>
+      </c>
+      <c r="J186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>79</v>
+      </c>
+      <c r="B187" s="1">
+        <v>42641</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0.8</v>
+      </c>
+      <c r="G187">
+        <v>24</v>
+      </c>
+      <c r="H187">
+        <v>6</v>
+      </c>
+      <c r="I187">
+        <v>4</v>
+      </c>
+      <c r="J187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>79</v>
+      </c>
+      <c r="B188" s="1">
+        <v>42642</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>7</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0.8</v>
+      </c>
+      <c r="G188">
+        <v>24</v>
+      </c>
+      <c r="H188">
+        <v>6</v>
+      </c>
+      <c r="I188">
+        <v>4</v>
+      </c>
+      <c r="J188" t="s">
+        <v>15</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>79</v>
+      </c>
+      <c r="B189" s="1">
+        <v>42642</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>7</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0.8</v>
+      </c>
+      <c r="G189">
+        <v>24</v>
+      </c>
+      <c r="H189">
+        <v>6</v>
+      </c>
+      <c r="I189">
+        <v>4</v>
+      </c>
+      <c r="J189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>79</v>
+      </c>
+      <c r="B190" s="1">
+        <v>42642</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>7</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0.8</v>
+      </c>
+      <c r="G190">
+        <v>24</v>
+      </c>
+      <c r="H190">
+        <v>6</v>
+      </c>
+      <c r="I190">
+        <v>4</v>
+      </c>
+      <c r="J190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>79</v>
+      </c>
+      <c r="B191" s="1">
+        <v>42643</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0.8</v>
+      </c>
+      <c r="G191">
+        <v>24</v>
+      </c>
+      <c r="H191">
+        <v>6</v>
+      </c>
+      <c r="I191">
+        <v>4</v>
+      </c>
+      <c r="J191" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>79</v>
+      </c>
+      <c r="B192" s="1">
+        <v>42643</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>7</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0.8</v>
+      </c>
+      <c r="G192">
+        <v>24</v>
+      </c>
+      <c r="H192">
+        <v>6</v>
+      </c>
+      <c r="I192">
+        <v>4</v>
+      </c>
+      <c r="J192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>79</v>
+      </c>
+      <c r="B193" s="1">
+        <v>42643</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>7</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0.8</v>
+      </c>
+      <c r="G193">
+        <v>24</v>
+      </c>
+      <c r="H193">
+        <v>6</v>
+      </c>
+      <c r="I193">
+        <v>4</v>
+      </c>
+      <c r="J193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>79</v>
+      </c>
+      <c r="B194" s="1">
+        <v>42646</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>7</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0.8</v>
+      </c>
+      <c r="G194">
+        <v>24</v>
+      </c>
+      <c r="H194">
+        <v>6</v>
+      </c>
+      <c r="I194">
+        <v>4</v>
+      </c>
+      <c r="J194" t="s">
+        <v>15</v>
+      </c>
+      <c r="K194" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>79</v>
+      </c>
+      <c r="B195" s="1">
+        <v>42646</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>7</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0.8</v>
+      </c>
+      <c r="G195">
+        <v>24</v>
+      </c>
+      <c r="H195">
+        <v>6</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+      <c r="J195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>79</v>
+      </c>
+      <c r="B196" s="1">
+        <v>42646</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>7</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0.8</v>
+      </c>
+      <c r="G196">
+        <v>24</v>
+      </c>
+      <c r="H196">
+        <v>6</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+      <c r="J196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>79</v>
+      </c>
+      <c r="B197" s="1">
+        <v>42647</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>7</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0.8</v>
+      </c>
+      <c r="G197">
+        <v>24</v>
+      </c>
+      <c r="H197">
+        <v>6</v>
+      </c>
+      <c r="I197">
+        <v>4</v>
+      </c>
+      <c r="J197" t="s">
+        <v>15</v>
+      </c>
+      <c r="K197" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>79</v>
+      </c>
+      <c r="B198" s="1">
+        <v>42647</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>7</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>0.8</v>
+      </c>
+      <c r="G198">
+        <v>24</v>
+      </c>
+      <c r="H198">
+        <v>6</v>
+      </c>
+      <c r="I198">
+        <v>4</v>
+      </c>
+      <c r="J198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>79</v>
+      </c>
+      <c r="B199" s="1">
+        <v>42647</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>7</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0.8</v>
+      </c>
+      <c r="G199">
+        <v>24</v>
+      </c>
+      <c r="H199">
+        <v>6</v>
+      </c>
+      <c r="I199">
+        <v>4</v>
+      </c>
+      <c r="J199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>79</v>
+      </c>
+      <c r="B200" s="1">
+        <v>42648</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F200">
+        <v>0.8</v>
+      </c>
+      <c r="G200">
+        <v>24</v>
+      </c>
+      <c r="H200">
+        <v>6</v>
+      </c>
+      <c r="I200">
+        <v>4</v>
+      </c>
+      <c r="J200" t="s">
+        <v>15</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>79</v>
+      </c>
+      <c r="B201" s="1">
+        <v>42648</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>7</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0.8</v>
+      </c>
+      <c r="G201">
+        <v>24</v>
+      </c>
+      <c r="H201">
+        <v>6</v>
+      </c>
+      <c r="I201">
+        <v>4</v>
+      </c>
+      <c r="J201" t="s">
+        <v>15</v>
+      </c>
+      <c r="K201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>79</v>
+      </c>
+      <c r="B202" s="1">
+        <v>42648</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>7</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0.8</v>
+      </c>
+      <c r="G202">
+        <v>24</v>
+      </c>
+      <c r="H202">
+        <v>6</v>
+      </c>
+      <c r="I202">
+        <v>4</v>
+      </c>
+      <c r="J202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>148</v>
+      </c>
+      <c r="B203" s="1">
+        <v>42954</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+      <c r="D203">
+        <v>7</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0.8</v>
+      </c>
+      <c r="G203">
+        <v>24</v>
+      </c>
+      <c r="H203">
+        <v>6</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203" t="s">
+        <v>15</v>
+      </c>
+      <c r="K203" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>148</v>
+      </c>
+      <c r="B204" s="1">
+        <v>42954</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>6</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0.8</v>
+      </c>
+      <c r="G204">
+        <v>24</v>
+      </c>
+      <c r="H204">
+        <v>6</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204" t="s">
+        <v>15</v>
+      </c>
+      <c r="K204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>148</v>
+      </c>
+      <c r="B205" s="1">
+        <v>42953</v>
+      </c>
+      <c r="C205">
+        <v>4</v>
+      </c>
+      <c r="D205">
+        <v>7</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0.8</v>
+      </c>
+      <c r="G205">
+        <v>24</v>
+      </c>
+      <c r="H205">
+        <v>6</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205" t="s">
+        <v>15</v>
+      </c>
+      <c r="K205" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>148</v>
+      </c>
+      <c r="B206" s="1">
+        <v>42953</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>6</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0.8</v>
+      </c>
+      <c r="G206">
+        <v>24</v>
+      </c>
+      <c r="H206">
+        <v>6</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206" t="s">
+        <v>15</v>
+      </c>
+      <c r="K206" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>148</v>
+      </c>
+      <c r="B207" s="1">
+        <v>42950</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207">
+        <v>7</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0.8</v>
+      </c>
+      <c r="G207">
+        <v>24</v>
+      </c>
+      <c r="H207">
+        <v>6</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207" t="s">
+        <v>15</v>
+      </c>
+      <c r="K207" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>148</v>
+      </c>
+      <c r="B208" s="1">
+        <v>42950</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>6</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0.8</v>
+      </c>
+      <c r="G208">
+        <v>24</v>
+      </c>
+      <c r="H208">
+        <v>6</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208" t="s">
+        <v>15</v>
+      </c>
+      <c r="K208" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>148</v>
+      </c>
+      <c r="B209" s="1">
+        <v>42949</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0.8</v>
+      </c>
+      <c r="G209">
+        <v>24</v>
+      </c>
+      <c r="H209">
+        <v>6</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>15</v>
+      </c>
+      <c r="K209" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>148</v>
+      </c>
+      <c r="B210" s="1">
+        <v>42949</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>6</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0.8</v>
+      </c>
+      <c r="G210">
+        <v>24</v>
+      </c>
+      <c r="H210">
+        <v>6</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>15</v>
+      </c>
+      <c r="K210" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>148</v>
+      </c>
+      <c r="B211" s="1">
+        <v>42948</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211">
+        <v>7</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0.8</v>
+      </c>
+      <c r="G211">
+        <v>24</v>
+      </c>
+      <c r="H211">
+        <v>6</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211" t="s">
+        <v>15</v>
+      </c>
+      <c r="K211" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>148</v>
+      </c>
+      <c r="B212" s="1">
+        <v>42948</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>6</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0.8</v>
+      </c>
+      <c r="G212">
+        <v>24</v>
+      </c>
+      <c r="H212">
+        <v>6</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212" t="s">
+        <v>15</v>
+      </c>
+      <c r="K212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>148</v>
+      </c>
+      <c r="B213" s="1">
+        <v>42939</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>7</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0.8</v>
+      </c>
+      <c r="G213">
+        <v>24</v>
+      </c>
+      <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213" t="s">
+        <v>15</v>
+      </c>
+      <c r="K213" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>148</v>
+      </c>
+      <c r="B214" s="1">
+        <v>42939</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>6</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0.8</v>
+      </c>
+      <c r="G214">
+        <v>24</v>
+      </c>
+      <c r="H214">
+        <v>6</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214" t="s">
+        <v>15</v>
+      </c>
+      <c r="K214" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>148</v>
+      </c>
+      <c r="B215" s="1">
+        <v>42936</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <v>7</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0.8</v>
+      </c>
+      <c r="G215">
+        <v>24</v>
+      </c>
+      <c r="H215">
+        <v>6</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215" t="s">
+        <v>15</v>
+      </c>
+      <c r="K215" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>148</v>
+      </c>
+      <c r="B216" s="1">
+        <v>42936</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>7</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0.8</v>
+      </c>
+      <c r="G216">
+        <v>24</v>
+      </c>
+      <c r="H216">
+        <v>6</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216" t="s">
+        <v>15</v>
+      </c>
+      <c r="K216" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>148</v>
+      </c>
+      <c r="B217" s="1">
+        <v>42934</v>
+      </c>
+      <c r="C217">
+        <v>4</v>
+      </c>
+      <c r="D217">
+        <v>7</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0.8</v>
+      </c>
+      <c r="G217">
+        <v>24</v>
+      </c>
+      <c r="H217">
+        <v>6</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217" t="s">
+        <v>15</v>
+      </c>
+      <c r="K217" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>148</v>
+      </c>
+      <c r="B218" s="1">
+        <v>42934</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>6</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0.8</v>
+      </c>
+      <c r="G218">
+        <v>24</v>
+      </c>
+      <c r="H218">
+        <v>6</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218" t="s">
+        <v>15</v>
+      </c>
+      <c r="K218" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>148</v>
+      </c>
+      <c r="B219" s="1">
+        <v>42933</v>
+      </c>
+      <c r="C219">
+        <v>4</v>
+      </c>
+      <c r="D219">
+        <v>7</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0.8</v>
+      </c>
+      <c r="G219">
+        <v>24</v>
+      </c>
+      <c r="H219">
+        <v>6</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219" t="s">
+        <v>15</v>
+      </c>
+      <c r="K219" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>148</v>
+      </c>
+      <c r="B220" s="1">
+        <v>42933</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>6</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0.8</v>
+      </c>
+      <c r="G220">
+        <v>24</v>
+      </c>
+      <c r="H220">
+        <v>6</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>15</v>
+      </c>
+      <c r="K220" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>148</v>
+      </c>
+      <c r="B221" s="1">
+        <v>42932</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+      <c r="D221">
+        <v>7</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0.8</v>
+      </c>
+      <c r="G221">
+        <v>24</v>
+      </c>
+      <c r="H221">
+        <v>6</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221" t="s">
+        <v>15</v>
+      </c>
+      <c r="K221" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>148</v>
+      </c>
+      <c r="B222" s="1">
+        <v>42932</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>6</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0.8</v>
+      </c>
+      <c r="G222">
+        <v>24</v>
+      </c>
+      <c r="H222">
+        <v>6</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>15</v>
+      </c>
+      <c r="K222" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>148</v>
+      </c>
+      <c r="B223" s="1">
+        <v>42929</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>6</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0.8</v>
+      </c>
+      <c r="G223">
+        <v>24</v>
+      </c>
+      <c r="H223">
+        <v>6</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>15</v>
+      </c>
+      <c r="K223" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>148</v>
+      </c>
+      <c r="B224" s="1">
+        <v>42928</v>
+      </c>
+      <c r="C224">
+        <v>4</v>
+      </c>
+      <c r="D224">
+        <v>7</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0.8</v>
+      </c>
+      <c r="G224">
+        <v>24</v>
+      </c>
+      <c r="H224">
+        <v>6</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224" t="s">
+        <v>15</v>
+      </c>
+      <c r="K224" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>148</v>
+      </c>
+      <c r="B225" s="1">
+        <v>42928</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>6</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0.8</v>
+      </c>
+      <c r="G225">
+        <v>24</v>
+      </c>
+      <c r="H225">
+        <v>6</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225" t="s">
+        <v>15</v>
+      </c>
+      <c r="K225" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>148</v>
+      </c>
+      <c r="B226" s="1">
+        <v>42927</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="D226">
+        <v>7</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0.8</v>
+      </c>
+      <c r="G226">
+        <v>24</v>
+      </c>
+      <c r="H226">
+        <v>6</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>15</v>
+      </c>
+      <c r="K226" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>148</v>
+      </c>
+      <c r="B227" s="1">
+        <v>42927</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>7</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0.8</v>
+      </c>
+      <c r="G227">
+        <v>24</v>
+      </c>
+      <c r="H227">
+        <v>6</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>15</v>
+      </c>
+      <c r="K227" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>148</v>
+      </c>
+      <c r="B228" s="1">
+        <v>42926</v>
+      </c>
+      <c r="C228">
+        <v>4</v>
+      </c>
+      <c r="D228">
+        <v>7</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0.8</v>
+      </c>
+      <c r="G228">
+        <v>24</v>
+      </c>
+      <c r="H228">
+        <v>6</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>15</v>
+      </c>
+      <c r="K228" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>148</v>
+      </c>
+      <c r="B229" s="1">
+        <v>42926</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>6</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0.8</v>
+      </c>
+      <c r="G229">
+        <v>24</v>
+      </c>
+      <c r="H229">
+        <v>6</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229" t="s">
+        <v>15</v>
+      </c>
+      <c r="K229" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>148</v>
+      </c>
+      <c r="B230" s="1">
+        <v>42921</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+      <c r="D230">
+        <v>7</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0.8</v>
+      </c>
+      <c r="G230">
+        <v>24</v>
+      </c>
+      <c r="H230">
+        <v>6</v>
+      </c>
+      <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230" t="s">
+        <v>15</v>
+      </c>
+      <c r="K230" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>148</v>
+      </c>
+      <c r="B231" s="1">
+        <v>42921</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>7</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0.8</v>
+      </c>
+      <c r="G231">
+        <v>24</v>
+      </c>
+      <c r="H231">
+        <v>6</v>
+      </c>
+      <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231" t="s">
+        <v>15</v>
+      </c>
+      <c r="K231" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>148</v>
+      </c>
+      <c r="B232" s="1">
+        <v>42920</v>
+      </c>
+      <c r="C232">
+        <v>4</v>
+      </c>
+      <c r="D232">
+        <v>7</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0.8</v>
+      </c>
+      <c r="G232">
+        <v>24</v>
+      </c>
+      <c r="H232">
+        <v>6</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>15</v>
+      </c>
+      <c r="K232" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>148</v>
+      </c>
+      <c r="B233" s="1">
+        <v>42920</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>6</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0.8</v>
+      </c>
+      <c r="G233">
+        <v>24</v>
+      </c>
+      <c r="H233">
+        <v>6</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233" t="s">
+        <v>15</v>
+      </c>
+      <c r="K233" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="71">
   <si>
     <t>bat</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>several cells but hard to isolate</t>
+  </si>
+  <si>
+    <t>use sorting per time segment and try to match by functional correlations</t>
+  </si>
+  <si>
+    <t>multi unit only</t>
+  </si>
+  <si>
+    <t>used spikes from coincidence detection</t>
   </si>
 </sst>
 </file>
@@ -589,11 +598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L233"/>
+  <dimension ref="A1:L268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K197" sqref="K197"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I268" sqref="I268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8421,6 +8430,1153 @@
         <v>62</v>
       </c>
     </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>148</v>
+      </c>
+      <c r="B234" s="1">
+        <v>42892</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>7</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>0.8</v>
+      </c>
+      <c r="G234">
+        <v>24</v>
+      </c>
+      <c r="H234">
+        <v>6</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>148</v>
+      </c>
+      <c r="B235" s="1">
+        <v>42892</v>
+      </c>
+      <c r="C235">
+        <v>4</v>
+      </c>
+      <c r="D235">
+        <v>7</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>0.8</v>
+      </c>
+      <c r="G235">
+        <v>24</v>
+      </c>
+      <c r="H235">
+        <v>6</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>148</v>
+      </c>
+      <c r="B236" s="1">
+        <v>42893</v>
+      </c>
+      <c r="C236">
+        <v>4</v>
+      </c>
+      <c r="D236">
+        <v>7</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>0.8</v>
+      </c>
+      <c r="G236">
+        <v>24</v>
+      </c>
+      <c r="H236">
+        <v>6</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236" t="s">
+        <v>15</v>
+      </c>
+      <c r="K236" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>148</v>
+      </c>
+      <c r="B237" s="1">
+        <v>42894</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>7</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0.8</v>
+      </c>
+      <c r="G237">
+        <v>24</v>
+      </c>
+      <c r="H237">
+        <v>6</v>
+      </c>
+      <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237" t="s">
+        <v>15</v>
+      </c>
+      <c r="K237" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>148</v>
+      </c>
+      <c r="B238" s="1">
+        <v>42894</v>
+      </c>
+      <c r="C238">
+        <v>4</v>
+      </c>
+      <c r="D238">
+        <v>7</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0.8</v>
+      </c>
+      <c r="G238">
+        <v>24</v>
+      </c>
+      <c r="H238">
+        <v>6</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+      <c r="J238" t="s">
+        <v>15</v>
+      </c>
+      <c r="K238" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>148</v>
+      </c>
+      <c r="B239" s="1">
+        <v>42897</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>7</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0.8</v>
+      </c>
+      <c r="G239">
+        <v>24</v>
+      </c>
+      <c r="H239">
+        <v>6</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239" t="s">
+        <v>15</v>
+      </c>
+      <c r="K239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>148</v>
+      </c>
+      <c r="B240" s="1">
+        <v>42897</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+      <c r="D240">
+        <v>7</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>0.8</v>
+      </c>
+      <c r="G240">
+        <v>24</v>
+      </c>
+      <c r="H240">
+        <v>6</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>148</v>
+      </c>
+      <c r="B241" s="1">
+        <v>42898</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>7</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>0.8</v>
+      </c>
+      <c r="G241">
+        <v>24</v>
+      </c>
+      <c r="H241">
+        <v>6</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>148</v>
+      </c>
+      <c r="B242" s="1">
+        <v>42898</v>
+      </c>
+      <c r="C242">
+        <v>4</v>
+      </c>
+      <c r="D242">
+        <v>7</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0.8</v>
+      </c>
+      <c r="G242">
+        <v>24</v>
+      </c>
+      <c r="H242">
+        <v>6</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242" t="s">
+        <v>15</v>
+      </c>
+      <c r="K242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>148</v>
+      </c>
+      <c r="B243" s="1">
+        <v>42899</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>7</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0.8</v>
+      </c>
+      <c r="G243">
+        <v>24</v>
+      </c>
+      <c r="H243">
+        <v>6</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>148</v>
+      </c>
+      <c r="B244" s="1">
+        <v>42899</v>
+      </c>
+      <c r="C244">
+        <v>4</v>
+      </c>
+      <c r="D244">
+        <v>7</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>0.8</v>
+      </c>
+      <c r="G244">
+        <v>24</v>
+      </c>
+      <c r="H244">
+        <v>6</v>
+      </c>
+      <c r="I244">
+        <v>2</v>
+      </c>
+      <c r="J244" t="s">
+        <v>15</v>
+      </c>
+      <c r="K244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>148</v>
+      </c>
+      <c r="B245" s="1">
+        <v>42900</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>7</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0.8</v>
+      </c>
+      <c r="G245">
+        <v>24</v>
+      </c>
+      <c r="H245">
+        <v>6</v>
+      </c>
+      <c r="I245">
+        <v>2</v>
+      </c>
+      <c r="J245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>148</v>
+      </c>
+      <c r="B246" s="1">
+        <v>42900</v>
+      </c>
+      <c r="C246">
+        <v>4</v>
+      </c>
+      <c r="D246">
+        <v>7</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0.8</v>
+      </c>
+      <c r="G246">
+        <v>24</v>
+      </c>
+      <c r="H246">
+        <v>6</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>148</v>
+      </c>
+      <c r="B247" s="1">
+        <v>42901</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>7</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0.8</v>
+      </c>
+      <c r="G247">
+        <v>24</v>
+      </c>
+      <c r="H247">
+        <v>6</v>
+      </c>
+      <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>148</v>
+      </c>
+      <c r="B248" s="1">
+        <v>42901</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248">
+        <v>7</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0.8</v>
+      </c>
+      <c r="G248">
+        <v>24</v>
+      </c>
+      <c r="H248">
+        <v>6</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>148</v>
+      </c>
+      <c r="B249" s="1">
+        <v>42904</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>7</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>0.8</v>
+      </c>
+      <c r="G249">
+        <v>24</v>
+      </c>
+      <c r="H249">
+        <v>6</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>148</v>
+      </c>
+      <c r="B250" s="1">
+        <v>42904</v>
+      </c>
+      <c r="C250">
+        <v>4</v>
+      </c>
+      <c r="D250">
+        <v>7</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0.8</v>
+      </c>
+      <c r="G250">
+        <v>24</v>
+      </c>
+      <c r="H250">
+        <v>6</v>
+      </c>
+      <c r="I250">
+        <v>2</v>
+      </c>
+      <c r="J250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>148</v>
+      </c>
+      <c r="B251" s="1">
+        <v>42905</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>7</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0.8</v>
+      </c>
+      <c r="G251">
+        <v>24</v>
+      </c>
+      <c r="H251">
+        <v>6</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>148</v>
+      </c>
+      <c r="B252" s="1">
+        <v>42905</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+      <c r="D252">
+        <v>7</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0.8</v>
+      </c>
+      <c r="G252">
+        <v>24</v>
+      </c>
+      <c r="H252">
+        <v>6</v>
+      </c>
+      <c r="I252">
+        <v>2</v>
+      </c>
+      <c r="J252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>148</v>
+      </c>
+      <c r="B253" s="1">
+        <v>42906</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>7</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0.8</v>
+      </c>
+      <c r="G253">
+        <v>24</v>
+      </c>
+      <c r="H253">
+        <v>6</v>
+      </c>
+      <c r="I253">
+        <v>2</v>
+      </c>
+      <c r="J253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>148</v>
+      </c>
+      <c r="B254" s="1">
+        <v>42906</v>
+      </c>
+      <c r="C254">
+        <v>4</v>
+      </c>
+      <c r="D254">
+        <v>7</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0.8</v>
+      </c>
+      <c r="G254">
+        <v>24</v>
+      </c>
+      <c r="H254">
+        <v>6</v>
+      </c>
+      <c r="I254">
+        <v>2</v>
+      </c>
+      <c r="J254" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>148</v>
+      </c>
+      <c r="B255" s="1">
+        <v>42907</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>7</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0.8</v>
+      </c>
+      <c r="G255">
+        <v>24</v>
+      </c>
+      <c r="H255">
+        <v>6</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>148</v>
+      </c>
+      <c r="B256" s="1">
+        <v>42907</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+      <c r="D256">
+        <v>7</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>0.8</v>
+      </c>
+      <c r="G256">
+        <v>24</v>
+      </c>
+      <c r="H256">
+        <v>6</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>148</v>
+      </c>
+      <c r="B257" s="1">
+        <v>42908</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>7</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0.8</v>
+      </c>
+      <c r="G257">
+        <v>24</v>
+      </c>
+      <c r="H257">
+        <v>6</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>148</v>
+      </c>
+      <c r="B258" s="1">
+        <v>42908</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258">
+        <v>7</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>0.8</v>
+      </c>
+      <c r="G258">
+        <v>24</v>
+      </c>
+      <c r="H258">
+        <v>6</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>148</v>
+      </c>
+      <c r="B259" s="1">
+        <v>42911</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>7</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0.8</v>
+      </c>
+      <c r="G259">
+        <v>24</v>
+      </c>
+      <c r="H259">
+        <v>6</v>
+      </c>
+      <c r="I259">
+        <v>2</v>
+      </c>
+      <c r="J259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>148</v>
+      </c>
+      <c r="B260" s="1">
+        <v>42911</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+      <c r="D260">
+        <v>7</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>0.8</v>
+      </c>
+      <c r="G260">
+        <v>24</v>
+      </c>
+      <c r="H260">
+        <v>6</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>148</v>
+      </c>
+      <c r="B261" s="1">
+        <v>42912</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>7</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0.8</v>
+      </c>
+      <c r="G261">
+        <v>24</v>
+      </c>
+      <c r="H261">
+        <v>6</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>148</v>
+      </c>
+      <c r="B262" s="1">
+        <v>42912</v>
+      </c>
+      <c r="C262">
+        <v>4</v>
+      </c>
+      <c r="D262">
+        <v>7</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0.8</v>
+      </c>
+      <c r="G262">
+        <v>24</v>
+      </c>
+      <c r="H262">
+        <v>6</v>
+      </c>
+      <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>148</v>
+      </c>
+      <c r="B263" s="1">
+        <v>42913</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>6</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0.8</v>
+      </c>
+      <c r="G263">
+        <v>24</v>
+      </c>
+      <c r="H263">
+        <v>6</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>148</v>
+      </c>
+      <c r="B264" s="1">
+        <v>42913</v>
+      </c>
+      <c r="C264">
+        <v>4</v>
+      </c>
+      <c r="D264">
+        <v>6</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0.8</v>
+      </c>
+      <c r="G264">
+        <v>24</v>
+      </c>
+      <c r="H264">
+        <v>6</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264" t="s">
+        <v>15</v>
+      </c>
+      <c r="K264" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>148</v>
+      </c>
+      <c r="B265" s="1">
+        <v>42914</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>6</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0.8</v>
+      </c>
+      <c r="G265">
+        <v>24</v>
+      </c>
+      <c r="H265">
+        <v>6</v>
+      </c>
+      <c r="I265">
+        <v>2</v>
+      </c>
+      <c r="J265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>148</v>
+      </c>
+      <c r="B266" s="1">
+        <v>42914</v>
+      </c>
+      <c r="C266">
+        <v>4</v>
+      </c>
+      <c r="D266">
+        <v>6</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>0.8</v>
+      </c>
+      <c r="G266">
+        <v>24</v>
+      </c>
+      <c r="H266">
+        <v>6</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266" t="s">
+        <v>15</v>
+      </c>
+      <c r="K266" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>148</v>
+      </c>
+      <c r="B267" s="1">
+        <v>42919</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>6</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0.8</v>
+      </c>
+      <c r="G267">
+        <v>24</v>
+      </c>
+      <c r="H267">
+        <v>6</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>148</v>
+      </c>
+      <c r="B268" s="1">
+        <v>42919</v>
+      </c>
+      <c r="C268">
+        <v>4</v>
+      </c>
+      <c r="D268">
+        <v>6</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0.8</v>
+      </c>
+      <c r="G268">
+        <v>24</v>
+      </c>
+      <c r="H268">
+        <v>6</v>
+      </c>
+      <c r="I268">
+        <v>2</v>
+      </c>
+      <c r="J268" t="s">
+        <v>15</v>
+      </c>
+      <c r="K268" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="72">
   <si>
     <t>bat</t>
   </si>
@@ -176,22 +176,10 @@
     <t>many spikes but hard to isolate</t>
   </si>
   <si>
-    <t>maybe SS01 and SS02 are the same unit?</t>
-  </si>
-  <si>
-    <t>maybe can be further isolated</t>
-  </si>
-  <si>
     <t>a mess of clusters</t>
   </si>
   <si>
     <t>multi-unit - unable t separate</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>not sure if to use the neg threshold - complicated sorting</t>
   </si>
   <si>
     <t>few good clusters</t>
@@ -237,6 +225,21 @@
   </si>
   <si>
     <t>used spikes from coincidence detection</t>
+  </si>
+  <si>
+    <t>Shir - not sure if to use the neg threshold - complicated sorting; Tamir - I resorted this tt with positive thr only</t>
+  </si>
+  <si>
+    <t>Tamir</t>
+  </si>
+  <si>
+    <t>Shir</t>
+  </si>
+  <si>
+    <t>maybe can be further isolated; resorted by Tamir</t>
+  </si>
+  <si>
+    <t>resorted by Tamir</t>
   </si>
 </sst>
 </file>
@@ -308,15 +311,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,23 +598,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L268"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I268" sqref="I268"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L202" sqref="L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="6" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="48.375" customWidth="1"/>
-    <col min="12" max="12" width="57.75" customWidth="1"/>
+    <col min="6" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="48.375" customWidth="1"/>
+    <col min="13" max="13" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -645,14 +645,14 @@
       <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>34</v>
       </c>
@@ -680,8 +680,11 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>34</v>
       </c>
@@ -709,8 +712,11 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>34</v>
       </c>
@@ -738,8 +744,11 @@
       <c r="J4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>34</v>
       </c>
@@ -767,8 +776,11 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>34</v>
       </c>
@@ -796,8 +808,11 @@
       <c r="J6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>34</v>
       </c>
@@ -811,10 +826,13 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>34</v>
       </c>
@@ -843,10 +861,13 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>34</v>
       </c>
@@ -875,10 +896,13 @@
         <v>14</v>
       </c>
       <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34</v>
       </c>
@@ -906,8 +930,11 @@
       <c r="J10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>34</v>
       </c>
@@ -935,8 +962,11 @@
       <c r="J11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>34</v>
       </c>
@@ -964,8 +994,11 @@
       <c r="J12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>34</v>
       </c>
@@ -993,8 +1026,11 @@
       <c r="J13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>34</v>
       </c>
@@ -1022,8 +1058,11 @@
       <c r="J14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>34</v>
       </c>
@@ -1051,8 +1090,11 @@
       <c r="J15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>34</v>
       </c>
@@ -1080,8 +1122,11 @@
       <c r="J16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>34</v>
       </c>
@@ -1110,10 +1155,13 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>34</v>
       </c>
@@ -1141,8 +1189,11 @@
       <c r="J18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>34</v>
       </c>
@@ -1170,8 +1221,11 @@
       <c r="J19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>34</v>
       </c>
@@ -1199,8 +1253,11 @@
       <c r="J20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9861</v>
       </c>
@@ -1232,10 +1289,13 @@
         <v>15</v>
       </c>
       <c r="K21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9861</v>
       </c>
@@ -1267,10 +1327,13 @@
         <v>15</v>
       </c>
       <c r="K22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9861</v>
       </c>
@@ -1302,10 +1365,13 @@
         <v>15</v>
       </c>
       <c r="K23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9861</v>
       </c>
@@ -1337,10 +1403,13 @@
         <v>15</v>
       </c>
       <c r="K24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9861</v>
       </c>
@@ -1371,8 +1440,11 @@
       <c r="J25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9861</v>
       </c>
@@ -1404,10 +1476,13 @@
         <v>15</v>
       </c>
       <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9861</v>
       </c>
@@ -1438,8 +1513,11 @@
       <c r="J27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9861</v>
       </c>
@@ -1470,8 +1548,11 @@
       <c r="J28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9861</v>
       </c>
@@ -1502,8 +1583,11 @@
       <c r="J29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9861</v>
       </c>
@@ -1534,8 +1618,11 @@
       <c r="J30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>9861</v>
       </c>
@@ -1567,10 +1654,13 @@
         <v>15</v>
       </c>
       <c r="K31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9861</v>
       </c>
@@ -1602,10 +1692,13 @@
         <v>15</v>
       </c>
       <c r="K32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>9861</v>
       </c>
@@ -1636,8 +1729,11 @@
       <c r="J33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9861</v>
       </c>
@@ -1668,8 +1764,11 @@
       <c r="J34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9861</v>
       </c>
@@ -1700,8 +1799,11 @@
       <c r="J35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9861</v>
       </c>
@@ -1732,8 +1834,11 @@
       <c r="J36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9861</v>
       </c>
@@ -1764,8 +1869,11 @@
       <c r="J37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9861</v>
       </c>
@@ -1797,10 +1905,13 @@
         <v>15</v>
       </c>
       <c r="K38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9861</v>
       </c>
@@ -1831,8 +1942,11 @@
       <c r="J39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9861</v>
       </c>
@@ -1864,10 +1978,13 @@
         <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9861</v>
       </c>
@@ -1898,8 +2015,11 @@
       <c r="J41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9861</v>
       </c>
@@ -1930,8 +2050,11 @@
       <c r="J42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9861</v>
       </c>
@@ -1962,8 +2085,11 @@
       <c r="J43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9861</v>
       </c>
@@ -1995,10 +2121,13 @@
         <v>15</v>
       </c>
       <c r="K44" t="s">
+        <v>68</v>
+      </c>
+      <c r="L44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9861</v>
       </c>
@@ -2030,10 +2159,13 @@
         <v>15</v>
       </c>
       <c r="K45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9861</v>
       </c>
@@ -2064,8 +2196,11 @@
       <c r="J46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9861</v>
       </c>
@@ -2096,8 +2231,11 @@
       <c r="J47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9861</v>
       </c>
@@ -2128,8 +2266,11 @@
       <c r="J48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>9861</v>
       </c>
@@ -2160,8 +2301,11 @@
       <c r="J49" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9861</v>
       </c>
@@ -2193,10 +2337,13 @@
         <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9861</v>
       </c>
@@ -2227,8 +2374,11 @@
       <c r="J51" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9861</v>
       </c>
@@ -2259,8 +2409,11 @@
       <c r="J52" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>9861</v>
       </c>
@@ -2291,8 +2444,11 @@
       <c r="J53" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>9861</v>
       </c>
@@ -2324,10 +2480,13 @@
         <v>15</v>
       </c>
       <c r="K54" t="s">
+        <v>68</v>
+      </c>
+      <c r="L54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>9861</v>
       </c>
@@ -2358,8 +2517,11 @@
       <c r="J55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>9861</v>
       </c>
@@ -2390,8 +2552,11 @@
       <c r="J56" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>9861</v>
       </c>
@@ -2423,10 +2588,13 @@
         <v>15</v>
       </c>
       <c r="K57" t="s">
+        <v>68</v>
+      </c>
+      <c r="L57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>9861</v>
       </c>
@@ -2458,10 +2626,13 @@
         <v>15</v>
       </c>
       <c r="K58" t="s">
+        <v>68</v>
+      </c>
+      <c r="L58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9861</v>
       </c>
@@ -2493,10 +2664,13 @@
         <v>15</v>
       </c>
       <c r="K59" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>9861</v>
       </c>
@@ -2528,10 +2702,13 @@
         <v>15</v>
       </c>
       <c r="K60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>9861</v>
       </c>
@@ -2562,8 +2739,11 @@
       <c r="J61" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>9861</v>
       </c>
@@ -2594,8 +2774,11 @@
       <c r="J62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>9861</v>
       </c>
@@ -2626,8 +2809,11 @@
       <c r="J63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>9861</v>
       </c>
@@ -2659,10 +2845,13 @@
         <v>15</v>
       </c>
       <c r="K64" t="s">
+        <v>68</v>
+      </c>
+      <c r="L64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>9861</v>
       </c>
@@ -2693,8 +2882,11 @@
       <c r="J65" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>9861</v>
       </c>
@@ -2726,10 +2918,13 @@
         <v>15</v>
       </c>
       <c r="K66" t="s">
+        <v>68</v>
+      </c>
+      <c r="L66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>9861</v>
       </c>
@@ -2761,10 +2956,13 @@
         <v>15</v>
       </c>
       <c r="K67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>9861</v>
       </c>
@@ -2796,10 +2994,13 @@
         <v>15</v>
       </c>
       <c r="K68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>9861</v>
       </c>
@@ -2831,10 +3032,13 @@
         <v>15</v>
       </c>
       <c r="K69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9861</v>
       </c>
@@ -2866,10 +3070,13 @@
         <v>15</v>
       </c>
       <c r="K70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>9861</v>
       </c>
@@ -2901,10 +3108,13 @@
         <v>15</v>
       </c>
       <c r="K71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>9861</v>
       </c>
@@ -2936,10 +3146,13 @@
         <v>15</v>
       </c>
       <c r="K72" t="s">
+        <v>68</v>
+      </c>
+      <c r="L72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>9861</v>
       </c>
@@ -2971,10 +3184,13 @@
         <v>15</v>
       </c>
       <c r="K73" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>9861</v>
       </c>
@@ -3006,10 +3222,13 @@
         <v>15</v>
       </c>
       <c r="K74" t="s">
+        <v>68</v>
+      </c>
+      <c r="L74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>9861</v>
       </c>
@@ -3041,10 +3260,13 @@
         <v>15</v>
       </c>
       <c r="K75" t="s">
+        <v>68</v>
+      </c>
+      <c r="L75" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9861</v>
       </c>
@@ -3076,10 +3298,13 @@
         <v>15</v>
       </c>
       <c r="K76" t="s">
+        <v>68</v>
+      </c>
+      <c r="L76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>9861</v>
       </c>
@@ -3110,8 +3335,11 @@
       <c r="J77" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9861</v>
       </c>
@@ -3143,10 +3371,13 @@
         <v>15</v>
       </c>
       <c r="K78" t="s">
+        <v>68</v>
+      </c>
+      <c r="L78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>9861</v>
       </c>
@@ -3178,10 +3409,13 @@
         <v>15</v>
       </c>
       <c r="K79" t="s">
+        <v>68</v>
+      </c>
+      <c r="L79" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>9861</v>
       </c>
@@ -3213,10 +3447,13 @@
         <v>15</v>
       </c>
       <c r="K80" t="s">
+        <v>68</v>
+      </c>
+      <c r="L80" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9861</v>
       </c>
@@ -3248,10 +3485,13 @@
         <v>15</v>
       </c>
       <c r="K81" t="s">
+        <v>68</v>
+      </c>
+      <c r="L81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>9861</v>
       </c>
@@ -3283,10 +3523,13 @@
         <v>15</v>
       </c>
       <c r="K82" t="s">
+        <v>68</v>
+      </c>
+      <c r="L82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9861</v>
       </c>
@@ -3318,10 +3561,13 @@
         <v>15</v>
       </c>
       <c r="K83" t="s">
+        <v>68</v>
+      </c>
+      <c r="L83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>9861</v>
       </c>
@@ -3353,10 +3599,13 @@
         <v>15</v>
       </c>
       <c r="K84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>9861</v>
       </c>
@@ -3388,10 +3637,13 @@
         <v>15</v>
       </c>
       <c r="K85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>9861</v>
       </c>
@@ -3422,8 +3674,11 @@
       <c r="J86" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>9861</v>
       </c>
@@ -3454,8 +3709,11 @@
       <c r="J87" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>9861</v>
       </c>
@@ -3486,8 +3744,11 @@
       <c r="J88" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2289</v>
       </c>
@@ -3519,10 +3780,13 @@
         <v>15</v>
       </c>
       <c r="K89" t="s">
+        <v>68</v>
+      </c>
+      <c r="L89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2289</v>
       </c>
@@ -3554,10 +3818,13 @@
         <v>15</v>
       </c>
       <c r="K90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2289</v>
       </c>
@@ -3589,10 +3856,13 @@
         <v>15</v>
       </c>
       <c r="K91" t="s">
+        <v>68</v>
+      </c>
+      <c r="L91" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2289</v>
       </c>
@@ -3624,10 +3894,13 @@
         <v>15</v>
       </c>
       <c r="K92" t="s">
+        <v>68</v>
+      </c>
+      <c r="L92" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2289</v>
       </c>
@@ -3659,10 +3932,13 @@
         <v>15</v>
       </c>
       <c r="K93" t="s">
+        <v>68</v>
+      </c>
+      <c r="L93" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2289</v>
       </c>
@@ -3694,10 +3970,13 @@
         <v>15</v>
       </c>
       <c r="K94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2289</v>
       </c>
@@ -3729,10 +4008,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="s">
+        <v>68</v>
+      </c>
+      <c r="L95" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2289</v>
       </c>
@@ -3764,10 +4046,13 @@
         <v>15</v>
       </c>
       <c r="K96" t="s">
+        <v>68</v>
+      </c>
+      <c r="L96" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2289</v>
       </c>
@@ -3799,10 +4084,13 @@
         <v>15</v>
       </c>
       <c r="K97" t="s">
+        <v>68</v>
+      </c>
+      <c r="L97" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2289</v>
       </c>
@@ -3834,10 +4122,13 @@
         <v>15</v>
       </c>
       <c r="K98" t="s">
+        <v>68</v>
+      </c>
+      <c r="L98" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2289</v>
       </c>
@@ -3869,10 +4160,13 @@
         <v>15</v>
       </c>
       <c r="K99" t="s">
+        <v>68</v>
+      </c>
+      <c r="L99" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2289</v>
       </c>
@@ -3904,10 +4198,13 @@
         <v>15</v>
       </c>
       <c r="K100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2289</v>
       </c>
@@ -3939,10 +4236,13 @@
         <v>15</v>
       </c>
       <c r="K101" t="s">
+        <v>68</v>
+      </c>
+      <c r="L101" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2289</v>
       </c>
@@ -3974,10 +4274,13 @@
         <v>15</v>
       </c>
       <c r="K102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2289</v>
       </c>
@@ -4009,10 +4312,13 @@
         <v>15</v>
       </c>
       <c r="K103" t="s">
+        <v>68</v>
+      </c>
+      <c r="L103" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2289</v>
       </c>
@@ -4044,10 +4350,13 @@
         <v>15</v>
       </c>
       <c r="K104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2289</v>
       </c>
@@ -4079,10 +4388,13 @@
         <v>15</v>
       </c>
       <c r="K105" t="s">
+        <v>68</v>
+      </c>
+      <c r="L105" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2289</v>
       </c>
@@ -4114,10 +4426,13 @@
         <v>15</v>
       </c>
       <c r="K106" t="s">
+        <v>68</v>
+      </c>
+      <c r="L106" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2289</v>
       </c>
@@ -4149,10 +4464,13 @@
         <v>15</v>
       </c>
       <c r="K107" t="s">
+        <v>68</v>
+      </c>
+      <c r="L107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2289</v>
       </c>
@@ -4184,10 +4502,13 @@
         <v>15</v>
       </c>
       <c r="K108" t="s">
+        <v>68</v>
+      </c>
+      <c r="L108" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2289</v>
       </c>
@@ -4219,10 +4540,13 @@
         <v>15</v>
       </c>
       <c r="K109" t="s">
+        <v>68</v>
+      </c>
+      <c r="L109" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2289</v>
       </c>
@@ -4254,10 +4578,13 @@
         <v>15</v>
       </c>
       <c r="K110" t="s">
+        <v>68</v>
+      </c>
+      <c r="L110" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2289</v>
       </c>
@@ -4289,10 +4616,13 @@
         <v>15</v>
       </c>
       <c r="K111" t="s">
+        <v>68</v>
+      </c>
+      <c r="L111" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2289</v>
       </c>
@@ -4324,10 +4654,13 @@
         <v>15</v>
       </c>
       <c r="K112" t="s">
+        <v>68</v>
+      </c>
+      <c r="L112" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2289</v>
       </c>
@@ -4359,10 +4692,13 @@
         <v>15</v>
       </c>
       <c r="K113" t="s">
+        <v>68</v>
+      </c>
+      <c r="L113" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2289</v>
       </c>
@@ -4394,10 +4730,13 @@
         <v>15</v>
       </c>
       <c r="K114" t="s">
+        <v>68</v>
+      </c>
+      <c r="L114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2289</v>
       </c>
@@ -4429,10 +4768,13 @@
         <v>15</v>
       </c>
       <c r="K115" t="s">
+        <v>68</v>
+      </c>
+      <c r="L115" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2289</v>
       </c>
@@ -4464,10 +4806,13 @@
         <v>15</v>
       </c>
       <c r="K116" t="s">
+        <v>68</v>
+      </c>
+      <c r="L116" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2289</v>
       </c>
@@ -4499,10 +4844,13 @@
         <v>15</v>
       </c>
       <c r="K117" t="s">
+        <v>68</v>
+      </c>
+      <c r="L117" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2289</v>
       </c>
@@ -4534,10 +4882,13 @@
         <v>15</v>
       </c>
       <c r="K118" t="s">
+        <v>68</v>
+      </c>
+      <c r="L118" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2289</v>
       </c>
@@ -4569,10 +4920,13 @@
         <v>15</v>
       </c>
       <c r="K119" t="s">
+        <v>68</v>
+      </c>
+      <c r="L119" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2289</v>
       </c>
@@ -4604,10 +4958,13 @@
         <v>15</v>
       </c>
       <c r="K120" t="s">
+        <v>68</v>
+      </c>
+      <c r="L120" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2289</v>
       </c>
@@ -4639,10 +4996,13 @@
         <v>15</v>
       </c>
       <c r="K121" t="s">
+        <v>68</v>
+      </c>
+      <c r="L121" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2289</v>
       </c>
@@ -4674,10 +5034,13 @@
         <v>15</v>
       </c>
       <c r="K122" t="s">
+        <v>68</v>
+      </c>
+      <c r="L122" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2289</v>
       </c>
@@ -4709,10 +5072,13 @@
         <v>15</v>
       </c>
       <c r="K123" t="s">
+        <v>68</v>
+      </c>
+      <c r="L123" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2289</v>
       </c>
@@ -4744,10 +5110,13 @@
         <v>15</v>
       </c>
       <c r="K124" t="s">
+        <v>68</v>
+      </c>
+      <c r="L124" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2289</v>
       </c>
@@ -4779,10 +5148,13 @@
         <v>15</v>
       </c>
       <c r="K125" t="s">
+        <v>68</v>
+      </c>
+      <c r="L125" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2289</v>
       </c>
@@ -4814,10 +5186,13 @@
         <v>15</v>
       </c>
       <c r="K126" t="s">
+        <v>68</v>
+      </c>
+      <c r="L126" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2289</v>
       </c>
@@ -4849,10 +5224,13 @@
         <v>15</v>
       </c>
       <c r="K127" t="s">
+        <v>68</v>
+      </c>
+      <c r="L127" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2289</v>
       </c>
@@ -4884,10 +5262,13 @@
         <v>15</v>
       </c>
       <c r="K128" t="s">
+        <v>68</v>
+      </c>
+      <c r="L128" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2289</v>
       </c>
@@ -4919,10 +5300,13 @@
         <v>15</v>
       </c>
       <c r="K129" t="s">
+        <v>68</v>
+      </c>
+      <c r="L129" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2289</v>
       </c>
@@ -4954,10 +5338,13 @@
         <v>15</v>
       </c>
       <c r="K130" t="s">
+        <v>68</v>
+      </c>
+      <c r="L130" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2289</v>
       </c>
@@ -4989,10 +5376,13 @@
         <v>15</v>
       </c>
       <c r="K131" t="s">
+        <v>68</v>
+      </c>
+      <c r="L131" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2289</v>
       </c>
@@ -5024,10 +5414,13 @@
         <v>15</v>
       </c>
       <c r="K132" t="s">
+        <v>68</v>
+      </c>
+      <c r="L132" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2289</v>
       </c>
@@ -5059,10 +5452,13 @@
         <v>15</v>
       </c>
       <c r="K133" t="s">
+        <v>68</v>
+      </c>
+      <c r="L133" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2289</v>
       </c>
@@ -5094,10 +5490,13 @@
         <v>15</v>
       </c>
       <c r="K134" t="s">
+        <v>68</v>
+      </c>
+      <c r="L134" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2289</v>
       </c>
@@ -5129,10 +5528,13 @@
         <v>15</v>
       </c>
       <c r="K135" t="s">
+        <v>68</v>
+      </c>
+      <c r="L135" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2289</v>
       </c>
@@ -5164,10 +5566,13 @@
         <v>15</v>
       </c>
       <c r="K136" t="s">
+        <v>68</v>
+      </c>
+      <c r="L136" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2289</v>
       </c>
@@ -5199,10 +5604,13 @@
         <v>15</v>
       </c>
       <c r="K137" t="s">
+        <v>68</v>
+      </c>
+      <c r="L137" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2289</v>
       </c>
@@ -5234,10 +5642,13 @@
         <v>15</v>
       </c>
       <c r="K138" t="s">
+        <v>68</v>
+      </c>
+      <c r="L138" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2289</v>
       </c>
@@ -5269,10 +5680,13 @@
         <v>15</v>
       </c>
       <c r="K139" t="s">
+        <v>68</v>
+      </c>
+      <c r="L139" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2289</v>
       </c>
@@ -5304,10 +5718,13 @@
         <v>15</v>
       </c>
       <c r="K140" t="s">
+        <v>68</v>
+      </c>
+      <c r="L140" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2289</v>
       </c>
@@ -5339,10 +5756,13 @@
         <v>15</v>
       </c>
       <c r="K141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2289</v>
       </c>
@@ -5374,10 +5794,13 @@
         <v>15</v>
       </c>
       <c r="K142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2289</v>
       </c>
@@ -5409,10 +5832,13 @@
         <v>15</v>
       </c>
       <c r="K143" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2289</v>
       </c>
@@ -5444,10 +5870,13 @@
         <v>15</v>
       </c>
       <c r="K144" t="s">
+        <v>68</v>
+      </c>
+      <c r="L144" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2289</v>
       </c>
@@ -5479,10 +5908,13 @@
         <v>15</v>
       </c>
       <c r="K145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2289</v>
       </c>
@@ -5514,10 +5946,13 @@
         <v>15</v>
       </c>
       <c r="K146" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2289</v>
       </c>
@@ -5549,10 +5984,13 @@
         <v>15</v>
       </c>
       <c r="K147" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2289</v>
       </c>
@@ -5584,10 +6022,13 @@
         <v>15</v>
       </c>
       <c r="K148" t="s">
+        <v>68</v>
+      </c>
+      <c r="L148" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2289</v>
       </c>
@@ -5619,10 +6060,13 @@
         <v>15</v>
       </c>
       <c r="K149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2289</v>
       </c>
@@ -5654,10 +6098,13 @@
         <v>15</v>
       </c>
       <c r="K150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2289</v>
       </c>
@@ -5689,10 +6136,13 @@
         <v>15</v>
       </c>
       <c r="K151" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2289</v>
       </c>
@@ -5724,10 +6174,13 @@
         <v>15</v>
       </c>
       <c r="K152" t="s">
+        <v>68</v>
+      </c>
+      <c r="L152" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>79</v>
       </c>
@@ -5758,8 +6211,11 @@
       <c r="J153" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K153" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>79</v>
       </c>
@@ -5790,8 +6246,11 @@
       <c r="J154" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K154" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>79</v>
       </c>
@@ -5822,8 +6281,11 @@
       <c r="J155" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K155" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>79</v>
       </c>
@@ -5854,11 +6316,14 @@
       <c r="J156" t="s">
         <v>14</v>
       </c>
-      <c r="K156" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K156" t="s">
+        <v>69</v>
+      </c>
+      <c r="L156" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>79</v>
       </c>
@@ -5889,8 +6354,11 @@
       <c r="J157" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K157" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>79</v>
       </c>
@@ -5921,8 +6389,11 @@
       <c r="J158" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K158" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>79</v>
       </c>
@@ -5953,8 +6424,11 @@
       <c r="J159" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K159" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>79</v>
       </c>
@@ -5985,8 +6459,11 @@
       <c r="J160" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K160" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>79</v>
       </c>
@@ -6017,8 +6494,11 @@
       <c r="J161" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K161" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>79</v>
       </c>
@@ -6049,8 +6529,14 @@
       <c r="J162" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K162" t="s">
+        <v>69</v>
+      </c>
+      <c r="L162" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>79</v>
       </c>
@@ -6081,8 +6567,11 @@
       <c r="J163" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K163" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>79</v>
       </c>
@@ -6113,8 +6602,11 @@
       <c r="J164" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K164" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>79</v>
       </c>
@@ -6145,8 +6637,11 @@
       <c r="J165" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K165" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>79</v>
       </c>
@@ -6177,8 +6672,11 @@
       <c r="J166" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K166" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>79</v>
       </c>
@@ -6209,8 +6707,11 @@
       <c r="J167" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K167" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>79</v>
       </c>
@@ -6241,8 +6742,11 @@
       <c r="J168" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K168" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>79</v>
       </c>
@@ -6273,8 +6777,11 @@
       <c r="J169" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K169" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>79</v>
       </c>
@@ -6305,8 +6812,11 @@
       <c r="J170" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K170" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>79</v>
       </c>
@@ -6337,8 +6847,11 @@
       <c r="J171" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K171" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>79</v>
       </c>
@@ -6369,8 +6882,11 @@
       <c r="J172" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K172" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>79</v>
       </c>
@@ -6399,10 +6915,13 @@
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>79</v>
       </c>
@@ -6433,8 +6952,11 @@
       <c r="J174" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K174" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>79</v>
       </c>
@@ -6465,8 +6987,11 @@
       <c r="J175" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K175" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>79</v>
       </c>
@@ -6497,8 +7022,11 @@
       <c r="J176" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K176" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>79</v>
       </c>
@@ -6529,8 +7057,11 @@
       <c r="J177" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K177" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>79</v>
       </c>
@@ -6561,8 +7092,11 @@
       <c r="J178" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K178" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>79</v>
       </c>
@@ -6593,8 +7127,11 @@
       <c r="J179" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K179" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>79</v>
       </c>
@@ -6625,8 +7162,11 @@
       <c r="J180" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K180" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>79</v>
       </c>
@@ -6657,8 +7197,11 @@
       <c r="J181" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K181" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>79</v>
       </c>
@@ -6689,8 +7232,11 @@
       <c r="J182" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K182" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>79</v>
       </c>
@@ -6721,8 +7267,11 @@
       <c r="J183" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K183" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>79</v>
       </c>
@@ -6753,8 +7302,11 @@
       <c r="J184" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K184" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>79</v>
       </c>
@@ -6785,8 +7337,11 @@
       <c r="J185" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K185" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>79</v>
       </c>
@@ -6817,8 +7372,11 @@
       <c r="J186" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K186" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>79</v>
       </c>
@@ -6849,8 +7407,11 @@
       <c r="J187" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K187" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>79</v>
       </c>
@@ -6881,11 +7442,14 @@
       <c r="J188" t="s">
         <v>15</v>
       </c>
-      <c r="K188" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K188" t="s">
+        <v>69</v>
+      </c>
+      <c r="L188" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>79</v>
       </c>
@@ -6916,8 +7480,11 @@
       <c r="J189" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K189" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>79</v>
       </c>
@@ -6948,8 +7515,11 @@
       <c r="J190" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K190" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>79</v>
       </c>
@@ -6980,8 +7550,11 @@
       <c r="J191" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K191" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>79</v>
       </c>
@@ -7012,8 +7585,11 @@
       <c r="J192" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K192" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>79</v>
       </c>
@@ -7044,8 +7620,11 @@
       <c r="J193" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K193" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>79</v>
       </c>
@@ -7077,10 +7656,13 @@
         <v>15</v>
       </c>
       <c r="K194" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>79</v>
       </c>
@@ -7111,8 +7693,11 @@
       <c r="J195" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K195" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>79</v>
       </c>
@@ -7143,8 +7728,11 @@
       <c r="J196" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K196" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>79</v>
       </c>
@@ -7176,10 +7764,13 @@
         <v>15</v>
       </c>
       <c r="K197" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>79</v>
       </c>
@@ -7210,8 +7801,11 @@
       <c r="J198" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K198" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>79</v>
       </c>
@@ -7242,8 +7836,11 @@
       <c r="J199" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K199" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>79</v>
       </c>
@@ -7256,8 +7853,8 @@
       <c r="D200">
         <v>7</v>
       </c>
-      <c r="E200" s="3" t="s">
-        <v>54</v>
+      <c r="E200">
+        <v>0</v>
       </c>
       <c r="F200">
         <v>0.8</v>
@@ -7274,11 +7871,14 @@
       <c r="J200" t="s">
         <v>15</v>
       </c>
-      <c r="K200" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K200" t="s">
+        <v>69</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>79</v>
       </c>
@@ -7310,10 +7910,13 @@
         <v>15</v>
       </c>
       <c r="K201" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>79</v>
       </c>
@@ -7344,8 +7947,11 @@
       <c r="J202" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K202" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>148</v>
       </c>
@@ -7377,10 +7983,13 @@
         <v>15</v>
       </c>
       <c r="K203" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L203" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>148</v>
       </c>
@@ -7412,10 +8021,13 @@
         <v>15</v>
       </c>
       <c r="K204" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>148</v>
       </c>
@@ -7447,10 +8059,13 @@
         <v>15</v>
       </c>
       <c r="K205" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L205" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>148</v>
       </c>
@@ -7482,10 +8097,13 @@
         <v>15</v>
       </c>
       <c r="K206" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L206" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>148</v>
       </c>
@@ -7517,10 +8135,13 @@
         <v>15</v>
       </c>
       <c r="K207" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L207" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>148</v>
       </c>
@@ -7552,10 +8173,13 @@
         <v>15</v>
       </c>
       <c r="K208" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L208" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>148</v>
       </c>
@@ -7587,10 +8211,13 @@
         <v>15</v>
       </c>
       <c r="K209" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L209" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>148</v>
       </c>
@@ -7622,10 +8249,13 @@
         <v>15</v>
       </c>
       <c r="K210" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L210" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>148</v>
       </c>
@@ -7657,10 +8287,13 @@
         <v>15</v>
       </c>
       <c r="K211" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L211" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>148</v>
       </c>
@@ -7692,10 +8325,13 @@
         <v>15</v>
       </c>
       <c r="K212" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>148</v>
       </c>
@@ -7727,10 +8363,13 @@
         <v>15</v>
       </c>
       <c r="K213" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L213" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>148</v>
       </c>
@@ -7762,10 +8401,13 @@
         <v>15</v>
       </c>
       <c r="K214" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L214" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>148</v>
       </c>
@@ -7797,10 +8439,13 @@
         <v>15</v>
       </c>
       <c r="K215" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L215" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>148</v>
       </c>
@@ -7832,10 +8477,13 @@
         <v>15</v>
       </c>
       <c r="K216" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L216" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>148</v>
       </c>
@@ -7867,10 +8515,13 @@
         <v>15</v>
       </c>
       <c r="K217" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L217" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>148</v>
       </c>
@@ -7902,10 +8553,13 @@
         <v>15</v>
       </c>
       <c r="K218" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L218" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>148</v>
       </c>
@@ -7937,10 +8591,13 @@
         <v>15</v>
       </c>
       <c r="K219" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L219" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>148</v>
       </c>
@@ -7972,10 +8629,13 @@
         <v>15</v>
       </c>
       <c r="K220" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L220" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>148</v>
       </c>
@@ -8007,10 +8667,13 @@
         <v>15</v>
       </c>
       <c r="K221" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L221" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>148</v>
       </c>
@@ -8042,10 +8705,13 @@
         <v>15</v>
       </c>
       <c r="K222" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L222" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>148</v>
       </c>
@@ -8077,10 +8743,13 @@
         <v>15</v>
       </c>
       <c r="K223" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L223" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>148</v>
       </c>
@@ -8112,10 +8781,13 @@
         <v>15</v>
       </c>
       <c r="K224" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L224" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>148</v>
       </c>
@@ -8147,10 +8819,13 @@
         <v>15</v>
       </c>
       <c r="K225" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L225" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>148</v>
       </c>
@@ -8182,10 +8857,13 @@
         <v>15</v>
       </c>
       <c r="K226" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L226" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>148</v>
       </c>
@@ -8217,10 +8895,13 @@
         <v>15</v>
       </c>
       <c r="K227" t="s">
+        <v>68</v>
+      </c>
+      <c r="L227" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>148</v>
       </c>
@@ -8252,10 +8933,13 @@
         <v>15</v>
       </c>
       <c r="K228" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L228" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>148</v>
       </c>
@@ -8287,10 +8971,13 @@
         <v>15</v>
       </c>
       <c r="K229" t="s">
+        <v>68</v>
+      </c>
+      <c r="L229" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>148</v>
       </c>
@@ -8322,10 +9009,13 @@
         <v>15</v>
       </c>
       <c r="K230" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L230" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>148</v>
       </c>
@@ -8357,10 +9047,13 @@
         <v>15</v>
       </c>
       <c r="K231" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L231" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>148</v>
       </c>
@@ -8392,10 +9085,13 @@
         <v>15</v>
       </c>
       <c r="K232" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L232" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>148</v>
       </c>
@@ -8427,10 +9123,13 @@
         <v>15</v>
       </c>
       <c r="K233" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L233" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>148</v>
       </c>
@@ -8461,8 +9160,11 @@
       <c r="J234" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K234" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>148</v>
       </c>
@@ -8493,8 +9195,11 @@
       <c r="J235" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K235" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>148</v>
       </c>
@@ -8526,10 +9231,13 @@
         <v>15</v>
       </c>
       <c r="K236" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L236" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>148</v>
       </c>
@@ -8563,8 +9271,11 @@
       <c r="K237" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L237" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>148</v>
       </c>
@@ -8596,10 +9307,13 @@
         <v>15</v>
       </c>
       <c r="K238" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L238" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>148</v>
       </c>
@@ -8631,10 +9345,13 @@
         <v>15</v>
       </c>
       <c r="K239" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>148</v>
       </c>
@@ -8665,8 +9382,11 @@
       <c r="J240" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K240" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>148</v>
       </c>
@@ -8697,8 +9417,11 @@
       <c r="J241" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K241" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>148</v>
       </c>
@@ -8730,10 +9453,13 @@
         <v>15</v>
       </c>
       <c r="K242" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>148</v>
       </c>
@@ -8764,8 +9490,11 @@
       <c r="J243" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K243" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>148</v>
       </c>
@@ -8797,10 +9526,13 @@
         <v>15</v>
       </c>
       <c r="K244" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>148</v>
       </c>
@@ -8831,8 +9563,11 @@
       <c r="J245" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K245" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>148</v>
       </c>
@@ -8863,8 +9598,11 @@
       <c r="J246" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K246" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>148</v>
       </c>
@@ -8895,8 +9633,11 @@
       <c r="J247" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K247" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>148</v>
       </c>
@@ -8927,8 +9668,11 @@
       <c r="J248" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K248" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>148</v>
       </c>
@@ -8959,8 +9703,11 @@
       <c r="J249" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K249" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>148</v>
       </c>
@@ -8991,8 +9738,11 @@
       <c r="J250" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K250" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>148</v>
       </c>
@@ -9023,8 +9773,11 @@
       <c r="J251" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K251" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>148</v>
       </c>
@@ -9055,8 +9808,11 @@
       <c r="J252" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K252" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>148</v>
       </c>
@@ -9087,8 +9843,11 @@
       <c r="J253" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K253" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>148</v>
       </c>
@@ -9119,8 +9878,11 @@
       <c r="J254" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K254" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>148</v>
       </c>
@@ -9151,8 +9913,11 @@
       <c r="J255" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K255" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>148</v>
       </c>
@@ -9183,8 +9948,11 @@
       <c r="J256" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K256" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>148</v>
       </c>
@@ -9215,8 +9983,11 @@
       <c r="J257" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K257" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>148</v>
       </c>
@@ -9247,8 +10018,11 @@
       <c r="J258" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K258" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>148</v>
       </c>
@@ -9279,8 +10053,11 @@
       <c r="J259" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K259" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>148</v>
       </c>
@@ -9311,8 +10088,11 @@
       <c r="J260" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K260" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>148</v>
       </c>
@@ -9343,8 +10123,11 @@
       <c r="J261" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K261" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>148</v>
       </c>
@@ -9375,8 +10158,11 @@
       <c r="J262" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K262" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>148</v>
       </c>
@@ -9407,8 +10193,11 @@
       <c r="J263" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K263" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>148</v>
       </c>
@@ -9440,10 +10229,13 @@
         <v>15</v>
       </c>
       <c r="K264" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L264" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>148</v>
       </c>
@@ -9474,8 +10266,11 @@
       <c r="J265" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K265" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>148</v>
       </c>
@@ -9507,10 +10302,13 @@
         <v>15</v>
       </c>
       <c r="K266" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L266" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>148</v>
       </c>
@@ -9541,8 +10339,11 @@
       <c r="J267" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K267" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>148</v>
       </c>
@@ -9574,7 +10375,10 @@
         <v>15</v>
       </c>
       <c r="K268" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="L268" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/inclusion_lists/sorting_summary.xlsx
+++ b/inclusion_lists/sorting_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="73">
   <si>
     <t>bat</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>resorted by Tamir</t>
+  </si>
+  <si>
+    <t>TODO: check why I wanted to resort???</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L202" sqref="L202"/>
+      <selection pane="bottomLeft" activeCell="L160" sqref="L160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6462,6 +6465,9 @@
       <c r="K160" t="s">
         <v>69</v>
       </c>
+      <c r="L160" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
